--- a/experiment/xlsx/experiments_SD-VBS_disparity_circle_pi4.xlsx
+++ b/experiment/xlsx/experiments_SD-VBS_disparity_circle_pi4.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">BENCH_DISPARITY_CORES1_DISPINPUT32</t>
   </si>
   <si>
-    <t xml:space="preserve">'4679'</t>
+    <t xml:space="preserve">'5689'</t>
   </si>
   <si>
     <t xml:space="preserve">BENCH_DISPARITY_CORES1_DISPINPUT64</t>
@@ -662,7 +662,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.81"/>
@@ -672,7 +672,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="65.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="22.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="14.93"/>

--- a/experiment/xlsx/experiments_SD-VBS_disparity_circle_pi4.xlsx
+++ b/experiment/xlsx/experiments_SD-VBS_disparity_circle_pi4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="123">
   <si>
     <t xml:space="preserve">xrtos or circle</t>
   </si>
@@ -109,296 +109,297 @@
     <t xml:space="preserve">'1'</t>
   </si>
   <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES1_DISPINPUT32</t>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES1_INPUTSIZE32</t>
   </si>
   <si>
     <t xml:space="preserve">'5689'</t>
   </si>
   <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES1_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES1_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES1_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES1_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES1_DISPINPUT192</t>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES1_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES1_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES1_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES1_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES1_INPUTSIZE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'31'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'11'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK1_INPUTSIZE32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'311'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'111'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK1_INPUTSIZE32</t>
   </si>
   <si>
     <t xml:space="preserve">'3111'</t>
   </si>
   <si>
+    <t xml:space="preserve">'1111'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK1_INPUTSIZE32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK1_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK1_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK1_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK1_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK1_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK1_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK1_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK1_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK1_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK1_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK1_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK1_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK1_INPUTSIZE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK1_INPUTSIZE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK1_INPUTSIZE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'13'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK2_INPUTSIZE32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'133'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK2_INPUTSIZE32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'1333'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK2_INPUTSIZE32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK2_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK2_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK2_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK2_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK2_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK2_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK2_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK2_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK2_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK2_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK2_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK2_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK2_INPUTSIZE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK2_INPUTSIZE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK2_INPUTSIZE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'12'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK1_INPUTSIZE32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'122'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK1_INPUTSIZE32</t>
+  </si>
+  <si>
     <t xml:space="preserve">'1222'</t>
   </si>
   <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK1_DISPINPUT32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK1_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK1_DISPINPUT192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'31'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'11'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK1_DISPINPUT32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'311'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'111'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK1_DISPINPUT32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'1111'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK1_DISPINPUT32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'13'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK2_DISPINPUT32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'133'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK2_DISPINPUT32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'1333'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK2_DISPINPUT32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'12'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK1_DISPINPUT32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'122'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK1_DISPINPUT32</t>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK1_INPUTSIZE32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK1_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK1_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK1_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK1_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK1_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK1_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK1_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK1_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK1_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK1_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK1_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK1_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK1_INPUTSIZE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK1_INPUTSIZE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK1_INPUTSIZE192</t>
   </si>
   <si>
     <t xml:space="preserve">'14'</t>
   </si>
   <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK2_DISPINPUT32</t>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK2_INPUTSIZE32</t>
   </si>
   <si>
     <t xml:space="preserve">'144'</t>
   </si>
   <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK2_DISPINPUT32</t>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK2_INPUTSIZE32</t>
   </si>
   <si>
     <t xml:space="preserve">'1444'</t>
   </si>
   <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_DISPINPUT32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK1_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK1_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK1_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK2_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK2_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK2_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK1_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK1_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK2_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK2_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_DISPINPUT64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK1_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK1_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK1_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK2_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK2_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK2_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK1_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK1_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK1_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK2_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK2_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_DISPINPUT96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK1_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK1_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK1_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK2_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK2_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK2_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK1_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK1_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK1_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK2_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK2_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_DISPINPUT128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK1_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK1_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK1_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK2_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK2_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK2_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK1_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK1_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK1_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK2_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK2_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_DISPINPUT160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK1_DISPINPUT192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK1_DISPINPUT192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK1_DISPINPUT192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_READATTACK2_DISPINPUT192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_READATTACK2_DISPINPUT192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_READATTACK2_DISPINPUT192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK1_DISPINPUT192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK1_DISPINPUT192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK2_DISPINPUT192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK2_DISPINPUT192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_DISPINPUT192</t>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_INPUTSIZE32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK2_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK2_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_INPUTSIZE64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK2_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK2_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_INPUTSIZE96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK2_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK2_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_INPUTSIZE128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK2_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK2_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_INPUTSIZE160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES2_64MB_WRITEATTACK2_INPUTSIZE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES3_64MB_WRITEATTACK2_INPUTSIZE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_INPUTSIZE192</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -514,7 +515,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -565,6 +566,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -656,13 +661,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ83"/>
+  <dimension ref="A1:AMJ172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.81"/>
@@ -672,7 +677,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="65.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="22.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="14.93"/>
@@ -843,14 +848,14 @@
       </c>
       <c r="R3" s="11" t="n">
         <f aca="false">INT(T3/U3)</f>
-        <v>22595</v>
+        <v>23264</v>
       </c>
       <c r="S3" s="12" t="n">
-        <v>451904</v>
+        <v>465289</v>
       </c>
       <c r="T3" s="11" t="n">
         <f aca="false">INT(S3/10)</f>
-        <v>45190</v>
+        <v>46528</v>
       </c>
       <c r="U3" s="8" t="n">
         <v>2</v>
@@ -912,14 +917,14 @@
       </c>
       <c r="R4" s="11" t="n">
         <f aca="false">INT(T4/U4)</f>
-        <v>80156</v>
+        <v>80815</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>1603138</v>
+        <v>1616309</v>
       </c>
       <c r="T4" s="11" t="n">
         <f aca="false">INT(S4/10)</f>
-        <v>160313</v>
+        <v>161630</v>
       </c>
       <c r="U4" s="8" t="n">
         <v>2</v>
@@ -981,14 +986,14 @@
       </c>
       <c r="R5" s="11" t="n">
         <f aca="false">INT(T5/U5)</f>
-        <v>179477</v>
+        <v>179279</v>
       </c>
       <c r="S5" s="12" t="n">
-        <v>3589543</v>
+        <v>3585585</v>
       </c>
       <c r="T5" s="11" t="n">
         <f aca="false">INT(S5/10)</f>
-        <v>358954</v>
+        <v>358558</v>
       </c>
       <c r="U5" s="8" t="n">
         <v>2</v>
@@ -1050,14 +1055,14 @@
       </c>
       <c r="R6" s="11" t="n">
         <f aca="false">INT(T6/U6)</f>
-        <v>362548</v>
+        <v>361725</v>
       </c>
       <c r="S6" s="12" t="n">
-        <v>7250977</v>
+        <v>7234506</v>
       </c>
       <c r="T6" s="11" t="n">
         <f aca="false">INT(S6/10)</f>
-        <v>725097</v>
+        <v>723450</v>
       </c>
       <c r="U6" s="8" t="n">
         <v>2</v>
@@ -1115,14 +1120,14 @@
       </c>
       <c r="R7" s="11" t="n">
         <f aca="false">INT(T7/U7)</f>
-        <v>514784</v>
+        <v>515890</v>
       </c>
       <c r="S7" s="12" t="n">
-        <v>10295681</v>
+        <v>10317812</v>
       </c>
       <c r="T7" s="11" t="n">
         <f aca="false">INT(S7/10)</f>
-        <v>1029568</v>
+        <v>1031781</v>
       </c>
       <c r="U7" s="8" t="n">
         <v>2</v>
@@ -1180,21 +1185,21 @@
       </c>
       <c r="R8" s="11" t="n">
         <f aca="false">INT(T8/U8)</f>
-        <v>911936</v>
+        <v>910827</v>
       </c>
       <c r="S8" s="12" t="n">
-        <v>18238725</v>
+        <v>18216552</v>
       </c>
       <c r="T8" s="11" t="n">
         <f aca="false">INT(S8/10)</f>
-        <v>1823872</v>
+        <v>1821655</v>
       </c>
       <c r="U8" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="13" t="n">
         <f aca="false">A8+1</f>
         <v>7</v>
       </c>
@@ -1210,19 +1215,19 @@
       <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="13" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="F9" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1231,42 +1236,38 @@
       <c r="K9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="0" t="n">
         <v>32</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="15" t="n">
+      <c r="Q9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16" t="n">
         <f aca="false">INT(T9/U9)</f>
-        <v>22595</v>
+        <v>23264</v>
       </c>
       <c r="S9" s="0" t="n">
         <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T9" s="15" t="n">
+        <v>465289</v>
+      </c>
+      <c r="T9" s="16" t="n">
         <f aca="false">INT(S9/10)</f>
-        <v>45190</v>
+        <v>46528</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="13" t="n">
         <f aca="false">A9+1</f>
         <v>8</v>
       </c>
@@ -1277,25 +1278,25 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="13" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="14" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
@@ -1306,39 +1307,37 @@
       <c r="L10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="M10" s="1"/>
       <c r="N10" s="0" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="16" t="n">
         <f aca="false">INT(T10/U10)</f>
-        <v>80156</v>
+        <v>23264</v>
       </c>
       <c r="S10" s="0" t="n">
-        <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T10" s="15" t="n">
+        <f aca="false">S$3</f>
+        <v>465289</v>
+      </c>
+      <c r="T10" s="16" t="n">
         <f aca="false">INT(S10/10)</f>
-        <v>160313</v>
+        <v>46528</v>
       </c>
       <c r="U10" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="13" t="n">
         <f aca="false">A10+1</f>
         <v>9</v>
       </c>
@@ -1349,25 +1348,25 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="13" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="F11" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="14" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>30</v>
@@ -1382,35 +1381,35 @@
         <v>30</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R11" s="16" t="n">
         <f aca="false">INT(T11/U11)</f>
-        <v>911936</v>
+        <v>23264</v>
       </c>
       <c r="S11" s="0" t="n">
-        <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T11" s="15" t="n">
+        <f aca="false">S$3</f>
+        <v>465289</v>
+      </c>
+      <c r="T11" s="16" t="n">
         <f aca="false">INT(S11/10)</f>
-        <v>1823872</v>
+        <v>46528</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="13" t="n">
         <f aca="false">A11+1</f>
         <v>10</v>
       </c>
@@ -1421,25 +1420,25 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="F12" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
@@ -1450,35 +1449,35 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="0" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="15" t="n">
+      <c r="Q12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="16" t="n">
         <f aca="false">INT(T12/U12)</f>
-        <v>22595</v>
+        <v>80815</v>
       </c>
       <c r="S12" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T12" s="15" t="n">
+        <f aca="false">S$4</f>
+        <v>1616309</v>
+      </c>
+      <c r="T12" s="16" t="n">
         <f aca="false">INT(S12/10)</f>
-        <v>45190</v>
+        <v>161630</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="13" t="n">
         <f aca="false">A12+1</f>
         <v>11</v>
       </c>
@@ -1489,20 +1488,20 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="F13" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1520,35 +1519,35 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="0" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="16" t="n">
         <f aca="false">INT(T13/U13)</f>
-        <v>22595</v>
+        <v>80815</v>
       </c>
       <c r="S13" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T13" s="15" t="n">
+        <f aca="false">S$4</f>
+        <v>1616309</v>
+      </c>
+      <c r="T13" s="16" t="n">
         <f aca="false">INT(S13/10)</f>
-        <v>45190</v>
+        <v>161630</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="13" t="n">
         <f aca="false">A13+1</f>
         <v>12</v>
       </c>
@@ -1559,26 +1558,26 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="14" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="13" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1592,35 +1591,35 @@
         <v>30</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R14" s="16" t="n">
         <f aca="false">INT(T14/U14)</f>
-        <v>22595</v>
+        <v>80815</v>
       </c>
       <c r="S14" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T14" s="15" t="n">
+        <f aca="false">S$4</f>
+        <v>1616309</v>
+      </c>
+      <c r="T14" s="16" t="n">
         <f aca="false">INT(S14/10)</f>
-        <v>45190</v>
+        <v>161630</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="13" t="n">
         <f aca="false">A14+1</f>
         <v>13</v>
       </c>
@@ -1631,25 +1630,25 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="F15" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>30</v>
@@ -1660,35 +1659,35 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="0" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="15" t="n">
+      <c r="Q15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="16" t="n">
         <f aca="false">INT(T15/U15)</f>
-        <v>22595</v>
+        <v>179279</v>
       </c>
       <c r="S15" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T15" s="15" t="n">
+        <f aca="false">S$5</f>
+        <v>3585585</v>
+      </c>
+      <c r="T15" s="16" t="n">
         <f aca="false">INT(S15/10)</f>
-        <v>45190</v>
+        <v>358558</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="13" t="n">
         <f aca="false">A15+1</f>
         <v>14</v>
       </c>
@@ -1699,25 +1698,25 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>30</v>
@@ -1730,35 +1729,35 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="0" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="16" t="n">
         <f aca="false">INT(T16/U16)</f>
-        <v>22595</v>
+        <v>179279</v>
       </c>
       <c r="S16" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T16" s="15" t="n">
+        <f aca="false">S$5</f>
+        <v>3585585</v>
+      </c>
+      <c r="T16" s="16" t="n">
         <f aca="false">INT(S16/10)</f>
-        <v>45190</v>
+        <v>358558</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="13" t="n">
         <f aca="false">A16+1</f>
         <v>15</v>
       </c>
@@ -1769,25 +1768,25 @@
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>30</v>
@@ -1802,35 +1801,35 @@
         <v>30</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R17" s="16" t="n">
         <f aca="false">INT(T17/U17)</f>
-        <v>22595</v>
+        <v>179279</v>
       </c>
       <c r="S17" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T17" s="15" t="n">
+        <f aca="false">S$5</f>
+        <v>3585585</v>
+      </c>
+      <c r="T17" s="16" t="n">
         <f aca="false">INT(S17/10)</f>
-        <v>45190</v>
+        <v>358558</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="13" t="n">
         <f aca="false">A17+1</f>
         <v>16</v>
       </c>
@@ -1841,25 +1840,25 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>30</v>
@@ -1870,35 +1869,35 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="0" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="15" t="n">
+      <c r="Q18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="16" t="n">
         <f aca="false">INT(T18/U18)</f>
-        <v>22595</v>
+        <v>361725</v>
       </c>
       <c r="S18" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T18" s="15" t="n">
+        <f aca="false">S$6</f>
+        <v>7234506</v>
+      </c>
+      <c r="T18" s="16" t="n">
         <f aca="false">INT(S18/10)</f>
-        <v>45190</v>
+        <v>723450</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="13" t="n">
         <f aca="false">A18+1</f>
         <v>17</v>
       </c>
@@ -1909,25 +1908,25 @@
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H19" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="F19" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>30</v>
@@ -1940,35 +1939,35 @@
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="0" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="16" t="n">
         <f aca="false">INT(T19/U19)</f>
-        <v>22595</v>
+        <v>361725</v>
       </c>
       <c r="S19" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T19" s="15" t="n">
+        <f aca="false">S$6</f>
+        <v>7234506</v>
+      </c>
+      <c r="T19" s="16" t="n">
         <f aca="false">INT(S19/10)</f>
-        <v>45190</v>
+        <v>723450</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="13" t="n">
         <f aca="false">A19+1</f>
         <v>18</v>
       </c>
@@ -1979,25 +1978,25 @@
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="F20" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>30</v>
@@ -2012,35 +2011,35 @@
         <v>30</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R20" s="16" t="n">
         <f aca="false">INT(T20/U20)</f>
-        <v>22595</v>
+        <v>361725</v>
       </c>
       <c r="S20" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T20" s="15" t="n">
+        <f aca="false">S$6</f>
+        <v>7234506</v>
+      </c>
+      <c r="T20" s="16" t="n">
         <f aca="false">INT(S20/10)</f>
-        <v>45190</v>
+        <v>723450</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="13" t="n">
         <f aca="false">A20+1</f>
         <v>19</v>
       </c>
@@ -2051,25 +2050,25 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="F21" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>30</v>
@@ -2080,35 +2079,35 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="0" t="n">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="15" t="n">
+      <c r="Q21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="16" t="n">
         <f aca="false">INT(T21/U21)</f>
-        <v>22595</v>
+        <v>515890</v>
       </c>
       <c r="S21" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T21" s="15" t="n">
+        <f aca="false">S$7</f>
+        <v>10317812</v>
+      </c>
+      <c r="T21" s="16" t="n">
         <f aca="false">INT(S21/10)</f>
-        <v>45190</v>
+        <v>1031781</v>
       </c>
       <c r="U21" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="13" t="n">
         <f aca="false">A21+1</f>
         <v>20</v>
       </c>
@@ -2119,25 +2118,25 @@
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H22" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>30</v>
@@ -2150,35 +2149,35 @@
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="0" t="n">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="16" t="n">
         <f aca="false">INT(T22/U22)</f>
-        <v>22595</v>
+        <v>515890</v>
       </c>
       <c r="S22" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T22" s="15" t="n">
+        <f aca="false">S$7</f>
+        <v>10317812</v>
+      </c>
+      <c r="T22" s="16" t="n">
         <f aca="false">INT(S22/10)</f>
-        <v>45190</v>
+        <v>1031781</v>
       </c>
       <c r="U22" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="13" t="n">
         <f aca="false">A22+1</f>
         <v>21</v>
       </c>
@@ -2189,25 +2188,25 @@
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G23" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H23" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="F23" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>30</v>
@@ -2222,35 +2221,35 @@
         <v>30</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R23" s="16" t="n">
         <f aca="false">INT(T23/U23)</f>
-        <v>22595</v>
+        <v>515890</v>
       </c>
       <c r="S23" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>451904</v>
-      </c>
-      <c r="T23" s="15" t="n">
+        <f aca="false">S$7</f>
+        <v>10317812</v>
+      </c>
+      <c r="T23" s="16" t="n">
         <f aca="false">INT(S23/10)</f>
-        <v>45190</v>
+        <v>1031781</v>
       </c>
       <c r="U23" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="13" t="n">
         <f aca="false">A23+1</f>
         <v>22</v>
       </c>
@@ -2261,25 +2260,25 @@
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G24" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="F24" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>30</v>
@@ -2290,35 +2289,35 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="0" t="n">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="15" t="n">
+      <c r="Q24" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="16" t="n">
         <f aca="false">INT(T24/U24)</f>
-        <v>80156</v>
+        <v>910827</v>
       </c>
       <c r="S24" s="0" t="n">
-        <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T24" s="15" t="n">
+        <f aca="false">S$8</f>
+        <v>18216552</v>
+      </c>
+      <c r="T24" s="16" t="n">
         <f aca="false">INT(S24/10)</f>
-        <v>160313</v>
+        <v>1821655</v>
       </c>
       <c r="U24" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="13" t="n">
         <f aca="false">A24+1</f>
         <v>23</v>
       </c>
@@ -2329,25 +2328,25 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H25" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="F25" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>30</v>
@@ -2360,35 +2359,35 @@
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="0" t="n">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="16" t="n">
         <f aca="false">INT(T25/U25)</f>
-        <v>80156</v>
+        <v>910827</v>
       </c>
       <c r="S25" s="0" t="n">
-        <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T25" s="15" t="n">
+        <f aca="false">S$8</f>
+        <v>18216552</v>
+      </c>
+      <c r="T25" s="16" t="n">
         <f aca="false">INT(S25/10)</f>
-        <v>160313</v>
+        <v>1821655</v>
       </c>
       <c r="U25" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="13" t="n">
         <f aca="false">A25+1</f>
         <v>24</v>
       </c>
@@ -2399,25 +2398,25 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="F26" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>30</v>
@@ -2432,35 +2431,35 @@
         <v>30</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R26" s="16" t="n">
         <f aca="false">INT(T26/U26)</f>
-        <v>80156</v>
+        <v>910827</v>
       </c>
       <c r="S26" s="0" t="n">
-        <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T26" s="15" t="n">
+        <f aca="false">S$8</f>
+        <v>18216552</v>
+      </c>
+      <c r="T26" s="16" t="n">
         <f aca="false">INT(S26/10)</f>
-        <v>160313</v>
+        <v>1821655</v>
       </c>
       <c r="U26" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="13" t="n">
         <f aca="false">A26+1</f>
         <v>25</v>
       </c>
@@ -2471,25 +2470,25 @@
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G27" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>30</v>
@@ -2500,35 +2499,35 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="0" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="15" t="n">
+      <c r="Q27" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="16" t="n">
         <f aca="false">INT(T27/U27)</f>
-        <v>80156</v>
+        <v>23264</v>
       </c>
       <c r="S27" s="0" t="n">
-        <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T27" s="15" t="n">
+        <f aca="false">S$3</f>
+        <v>465289</v>
+      </c>
+      <c r="T27" s="16" t="n">
         <f aca="false">INT(S27/10)</f>
-        <v>160313</v>
+        <v>46528</v>
       </c>
       <c r="U27" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="13" t="n">
         <f aca="false">A27+1</f>
         <v>26</v>
       </c>
@@ -2539,25 +2538,25 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G28" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H28" s="13" t="n">
+        <v>62</v>
+      </c>
+      <c r="F28" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>30</v>
@@ -2570,35 +2569,35 @@
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="0" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q28" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="16" t="n">
         <f aca="false">INT(T28/U28)</f>
-        <v>80156</v>
+        <v>23264</v>
       </c>
       <c r="S28" s="0" t="n">
-        <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T28" s="15" t="n">
+        <f aca="false">S$3</f>
+        <v>465289</v>
+      </c>
+      <c r="T28" s="16" t="n">
         <f aca="false">INT(S28/10)</f>
-        <v>160313</v>
+        <v>46528</v>
       </c>
       <c r="U28" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="13" t="n">
         <f aca="false">A28+1</f>
         <v>27</v>
       </c>
@@ -2609,25 +2608,25 @@
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H29" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="F29" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>30</v>
@@ -2642,35 +2641,35 @@
         <v>30</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R29" s="16" t="n">
         <f aca="false">INT(T29/U29)</f>
-        <v>80156</v>
+        <v>23264</v>
       </c>
       <c r="S29" s="0" t="n">
-        <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T29" s="15" t="n">
+        <f aca="false">S$3</f>
+        <v>465289</v>
+      </c>
+      <c r="T29" s="16" t="n">
         <f aca="false">INT(S29/10)</f>
-        <v>160313</v>
+        <v>46528</v>
       </c>
       <c r="U29" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="13" t="n">
         <f aca="false">A29+1</f>
         <v>28</v>
       </c>
@@ -2681,25 +2680,25 @@
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G30" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H30" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>30</v>
@@ -2713,32 +2712,32 @@
         <v>64</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="15" t="n">
+      <c r="Q30" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="16" t="n">
         <f aca="false">INT(T30/U30)</f>
-        <v>80156</v>
+        <v>80815</v>
       </c>
       <c r="S30" s="0" t="n">
         <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T30" s="15" t="n">
+        <v>1616309</v>
+      </c>
+      <c r="T30" s="16" t="n">
         <f aca="false">INT(S30/10)</f>
-        <v>160313</v>
+        <v>161630</v>
       </c>
       <c r="U30" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="13" t="n">
         <f aca="false">A30+1</f>
         <v>29</v>
       </c>
@@ -2749,25 +2748,25 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G31" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H31" s="13" t="n">
+        <v>62</v>
+      </c>
+      <c r="F31" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>30</v>
@@ -2783,32 +2782,32 @@
         <v>64</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q31" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="16" t="n">
         <f aca="false">INT(T31/U31)</f>
-        <v>80156</v>
+        <v>80815</v>
       </c>
       <c r="S31" s="0" t="n">
         <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T31" s="15" t="n">
+        <v>1616309</v>
+      </c>
+      <c r="T31" s="16" t="n">
         <f aca="false">INT(S31/10)</f>
-        <v>160313</v>
+        <v>161630</v>
       </c>
       <c r="U31" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="13" t="n">
         <f aca="false">A31+1</f>
         <v>30</v>
       </c>
@@ -2819,25 +2818,25 @@
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G32" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H32" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="F32" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>30</v>
@@ -2855,32 +2854,32 @@
         <v>64</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R32" s="16" t="n">
         <f aca="false">INT(T32/U32)</f>
-        <v>80156</v>
+        <v>80815</v>
       </c>
       <c r="S32" s="0" t="n">
         <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T32" s="15" t="n">
+        <v>1616309</v>
+      </c>
+      <c r="T32" s="16" t="n">
         <f aca="false">INT(S32/10)</f>
-        <v>160313</v>
+        <v>161630</v>
       </c>
       <c r="U32" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="13" t="n">
         <f aca="false">A32+1</f>
         <v>31</v>
       </c>
@@ -2891,25 +2890,25 @@
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G33" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H33" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F33" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>30</v>
@@ -2920,35 +2919,35 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="0" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="15" t="n">
+      <c r="Q33" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="16" t="n">
         <f aca="false">INT(T33/U33)</f>
-        <v>80156</v>
+        <v>179279</v>
       </c>
       <c r="S33" s="0" t="n">
-        <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T33" s="15" t="n">
+        <f aca="false">S$5</f>
+        <v>3585585</v>
+      </c>
+      <c r="T33" s="16" t="n">
         <f aca="false">INT(S33/10)</f>
-        <v>160313</v>
+        <v>358558</v>
       </c>
       <c r="U33" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="13" t="n">
         <f aca="false">A33+1</f>
         <v>32</v>
       </c>
@@ -2959,25 +2958,25 @@
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H34" s="13" t="n">
+        <v>62</v>
+      </c>
+      <c r="F34" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>30</v>
@@ -2990,35 +2989,35 @@
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="0" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="16" t="n">
         <f aca="false">INT(T34/U34)</f>
-        <v>80156</v>
+        <v>179279</v>
       </c>
       <c r="S34" s="0" t="n">
-        <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T34" s="15" t="n">
+        <f aca="false">S$5</f>
+        <v>3585585</v>
+      </c>
+      <c r="T34" s="16" t="n">
         <f aca="false">INT(S34/10)</f>
-        <v>160313</v>
+        <v>358558</v>
       </c>
       <c r="U34" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="13" t="n">
         <f aca="false">A34+1</f>
         <v>33</v>
       </c>
@@ -3029,25 +3028,25 @@
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G35" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="F35" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>30</v>
@@ -3062,35 +3061,35 @@
         <v>30</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R35" s="16" t="n">
         <f aca="false">INT(T35/U35)</f>
-        <v>80156</v>
+        <v>179279</v>
       </c>
       <c r="S35" s="0" t="n">
-        <f aca="false">S$4</f>
-        <v>1603138</v>
-      </c>
-      <c r="T35" s="15" t="n">
+        <f aca="false">S$5</f>
+        <v>3585585</v>
+      </c>
+      <c r="T35" s="16" t="n">
         <f aca="false">INT(S35/10)</f>
-        <v>160313</v>
+        <v>358558</v>
       </c>
       <c r="U35" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="13" t="n">
         <f aca="false">A35+1</f>
         <v>34</v>
       </c>
@@ -3101,25 +3100,25 @@
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G36" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F36" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>30</v>
@@ -3130,35 +3129,35 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="0" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="15" t="n">
+      <c r="Q36" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="16" t="n">
         <f aca="false">INT(T36/U36)</f>
-        <v>179477</v>
+        <v>361725</v>
       </c>
       <c r="S36" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3589543</v>
-      </c>
-      <c r="T36" s="15" t="n">
+        <f aca="false">S$6</f>
+        <v>7234506</v>
+      </c>
+      <c r="T36" s="16" t="n">
         <f aca="false">INT(S36/10)</f>
-        <v>358954</v>
+        <v>723450</v>
       </c>
       <c r="U36" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="13" t="n">
         <f aca="false">A36+1</f>
         <v>35</v>
       </c>
@@ -3169,25 +3168,25 @@
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G37" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="13" t="n">
+        <v>62</v>
+      </c>
+      <c r="F37" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>30</v>
@@ -3200,35 +3199,35 @@
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="0" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q37" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="16" t="n">
         <f aca="false">INT(T37/U37)</f>
-        <v>179477</v>
+        <v>361725</v>
       </c>
       <c r="S37" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3589543</v>
-      </c>
-      <c r="T37" s="15" t="n">
+        <f aca="false">S$6</f>
+        <v>7234506</v>
+      </c>
+      <c r="T37" s="16" t="n">
         <f aca="false">INT(S37/10)</f>
-        <v>358954</v>
+        <v>723450</v>
       </c>
       <c r="U37" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="13" t="n">
         <f aca="false">A37+1</f>
         <v>36</v>
       </c>
@@ -3239,25 +3238,25 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G38" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H38" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>30</v>
@@ -3272,35 +3271,35 @@
         <v>30</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R38" s="16" t="n">
         <f aca="false">INT(T38/U38)</f>
-        <v>179477</v>
+        <v>361725</v>
       </c>
       <c r="S38" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3589543</v>
-      </c>
-      <c r="T38" s="15" t="n">
+        <f aca="false">S$6</f>
+        <v>7234506</v>
+      </c>
+      <c r="T38" s="16" t="n">
         <f aca="false">INT(S38/10)</f>
-        <v>358954</v>
+        <v>723450</v>
       </c>
       <c r="U38" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="13" t="n">
         <f aca="false">A38+1</f>
         <v>37</v>
       </c>
@@ -3311,25 +3310,25 @@
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G39" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H39" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>30</v>
@@ -3340,35 +3339,35 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="0" t="n">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="15" t="n">
+      <c r="Q39" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="16" t="n">
         <f aca="false">INT(T39/U39)</f>
-        <v>179477</v>
+        <v>515890</v>
       </c>
       <c r="S39" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3589543</v>
-      </c>
-      <c r="T39" s="15" t="n">
+        <f aca="false">S$7</f>
+        <v>10317812</v>
+      </c>
+      <c r="T39" s="16" t="n">
         <f aca="false">INT(S39/10)</f>
-        <v>358954</v>
+        <v>1031781</v>
       </c>
       <c r="U39" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="13" t="n">
         <f aca="false">A39+1</f>
         <v>38</v>
       </c>
@@ -3379,25 +3378,25 @@
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G40" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H40" s="13" t="n">
+        <v>62</v>
+      </c>
+      <c r="F40" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>30</v>
@@ -3410,35 +3409,35 @@
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="0" t="n">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q40" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="16" t="n">
         <f aca="false">INT(T40/U40)</f>
-        <v>179477</v>
+        <v>515890</v>
       </c>
       <c r="S40" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3589543</v>
-      </c>
-      <c r="T40" s="15" t="n">
+        <f aca="false">S$7</f>
+        <v>10317812</v>
+      </c>
+      <c r="T40" s="16" t="n">
         <f aca="false">INT(S40/10)</f>
-        <v>358954</v>
+        <v>1031781</v>
       </c>
       <c r="U40" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="13" t="n">
         <f aca="false">A40+1</f>
         <v>39</v>
       </c>
@@ -3449,25 +3448,25 @@
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H41" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="F41" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>30</v>
@@ -3482,35 +3481,35 @@
         <v>30</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R41" s="16" t="n">
         <f aca="false">INT(T41/U41)</f>
-        <v>179477</v>
+        <v>515890</v>
       </c>
       <c r="S41" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3589543</v>
-      </c>
-      <c r="T41" s="15" t="n">
+        <f aca="false">S$7</f>
+        <v>10317812</v>
+      </c>
+      <c r="T41" s="16" t="n">
         <f aca="false">INT(S41/10)</f>
-        <v>358954</v>
+        <v>1031781</v>
       </c>
       <c r="U41" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="13" t="n">
         <f aca="false">A41+1</f>
         <v>40</v>
       </c>
@@ -3521,25 +3520,25 @@
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G42" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H42" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F42" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>30</v>
@@ -3550,35 +3549,35 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="0" t="n">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="15" t="n">
+      <c r="Q42" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="16" t="n">
         <f aca="false">INT(T42/U42)</f>
-        <v>179477</v>
+        <v>910827</v>
       </c>
       <c r="S42" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3589543</v>
-      </c>
-      <c r="T42" s="15" t="n">
+        <f aca="false">S$8</f>
+        <v>18216552</v>
+      </c>
+      <c r="T42" s="16" t="n">
         <f aca="false">INT(S42/10)</f>
-        <v>358954</v>
+        <v>1821655</v>
       </c>
       <c r="U42" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="13" t="n">
         <f aca="false">A42+1</f>
         <v>41</v>
       </c>
@@ -3589,25 +3588,25 @@
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G43" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H43" s="13" t="n">
+        <v>62</v>
+      </c>
+      <c r="F43" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>30</v>
@@ -3620,35 +3619,35 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="0" t="n">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q43" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="16" t="n">
         <f aca="false">INT(T43/U43)</f>
-        <v>179477</v>
+        <v>910827</v>
       </c>
       <c r="S43" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3589543</v>
-      </c>
-      <c r="T43" s="15" t="n">
+        <f aca="false">S$8</f>
+        <v>18216552</v>
+      </c>
+      <c r="T43" s="16" t="n">
         <f aca="false">INT(S43/10)</f>
-        <v>358954</v>
+        <v>1821655</v>
       </c>
       <c r="U43" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="13" t="n">
         <f aca="false">A43+1</f>
         <v>42</v>
       </c>
@@ -3659,25 +3658,25 @@
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G44" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H44" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="F44" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>30</v>
@@ -3692,35 +3691,35 @@
         <v>30</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R44" s="16" t="n">
         <f aca="false">INT(T44/U44)</f>
-        <v>179477</v>
+        <v>910827</v>
       </c>
       <c r="S44" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3589543</v>
-      </c>
-      <c r="T44" s="15" t="n">
+        <f aca="false">S$8</f>
+        <v>18216552</v>
+      </c>
+      <c r="T44" s="16" t="n">
         <f aca="false">INT(S44/10)</f>
-        <v>358954</v>
+        <v>1821655</v>
       </c>
       <c r="U44" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="13" t="n">
         <f aca="false">A44+1</f>
         <v>43</v>
       </c>
@@ -3731,25 +3730,25 @@
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G45" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H45" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="F45" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>30</v>
@@ -3760,35 +3759,35 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="0" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="15" t="n">
+      <c r="Q45" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="16" t="n">
         <f aca="false">INT(T45/U45)</f>
-        <v>179477</v>
+        <v>23264</v>
       </c>
       <c r="S45" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3589543</v>
-      </c>
-      <c r="T45" s="15" t="n">
+        <f aca="false">S$3</f>
+        <v>465289</v>
+      </c>
+      <c r="T45" s="16" t="n">
         <f aca="false">INT(S45/10)</f>
-        <v>358954</v>
+        <v>46528</v>
       </c>
       <c r="U45" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="13" t="n">
         <f aca="false">A45+1</f>
         <v>44</v>
       </c>
@@ -3799,25 +3798,25 @@
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G46" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H46" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="F46" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>30</v>
@@ -3830,35 +3829,35 @@
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="0" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q46" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="16" t="n">
         <f aca="false">INT(T46/U46)</f>
-        <v>179477</v>
+        <v>23264</v>
       </c>
       <c r="S46" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3589543</v>
-      </c>
-      <c r="T46" s="15" t="n">
+        <f aca="false">S$3</f>
+        <v>465289</v>
+      </c>
+      <c r="T46" s="16" t="n">
         <f aca="false">INT(S46/10)</f>
-        <v>358954</v>
+        <v>46528</v>
       </c>
       <c r="U46" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="13" t="n">
         <f aca="false">A46+1</f>
         <v>45</v>
       </c>
@@ -3869,25 +3868,25 @@
         <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G47" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H47" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="F47" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>30</v>
@@ -3902,35 +3901,35 @@
         <v>30</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R47" s="16" t="n">
         <f aca="false">INT(T47/U47)</f>
-        <v>179477</v>
+        <v>23264</v>
       </c>
       <c r="S47" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>3589543</v>
-      </c>
-      <c r="T47" s="15" t="n">
+        <f aca="false">S$3</f>
+        <v>465289</v>
+      </c>
+      <c r="T47" s="16" t="n">
         <f aca="false">INT(S47/10)</f>
-        <v>358954</v>
+        <v>46528</v>
       </c>
       <c r="U47" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="13" t="n">
         <f aca="false">A47+1</f>
         <v>46</v>
       </c>
@@ -3941,25 +3940,25 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G48" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H48" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="F48" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>30</v>
@@ -3970,35 +3969,35 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="0" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P48" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q48" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="15" t="n">
+      <c r="Q48" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="16" t="n">
         <f aca="false">INT(T48/U48)</f>
-        <v>362548</v>
+        <v>80815</v>
       </c>
       <c r="S48" s="0" t="n">
-        <f aca="false">S$6</f>
-        <v>7250977</v>
-      </c>
-      <c r="T48" s="15" t="n">
+        <f aca="false">S$4</f>
+        <v>1616309</v>
+      </c>
+      <c r="T48" s="16" t="n">
         <f aca="false">INT(S48/10)</f>
-        <v>725097</v>
+        <v>161630</v>
       </c>
       <c r="U48" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="13" t="n">
         <f aca="false">A48+1</f>
         <v>47</v>
       </c>
@@ -4009,25 +4008,25 @@
         <v>4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G49" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H49" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="F49" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>30</v>
@@ -4040,35 +4039,35 @@
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="0" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q49" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="16" t="n">
         <f aca="false">INT(T49/U49)</f>
-        <v>362548</v>
+        <v>80815</v>
       </c>
       <c r="S49" s="0" t="n">
-        <f aca="false">S$6</f>
-        <v>7250977</v>
-      </c>
-      <c r="T49" s="15" t="n">
+        <f aca="false">S$4</f>
+        <v>1616309</v>
+      </c>
+      <c r="T49" s="16" t="n">
         <f aca="false">INT(S49/10)</f>
-        <v>725097</v>
+        <v>161630</v>
       </c>
       <c r="U49" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="13" t="n">
         <f aca="false">A49+1</f>
         <v>48</v>
       </c>
@@ -4079,25 +4078,25 @@
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G50" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H50" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="F50" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H50" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>30</v>
@@ -4112,35 +4111,35 @@
         <v>30</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R50" s="16" t="n">
         <f aca="false">INT(T50/U50)</f>
-        <v>362548</v>
+        <v>80815</v>
       </c>
       <c r="S50" s="0" t="n">
-        <f aca="false">S$6</f>
-        <v>7250977</v>
-      </c>
-      <c r="T50" s="15" t="n">
+        <f aca="false">S$4</f>
+        <v>1616309</v>
+      </c>
+      <c r="T50" s="16" t="n">
         <f aca="false">INT(S50/10)</f>
-        <v>725097</v>
+        <v>161630</v>
       </c>
       <c r="U50" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="13" t="n">
         <f aca="false">A50+1</f>
         <v>49</v>
       </c>
@@ -4151,25 +4150,25 @@
         <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G51" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H51" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="F51" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G51" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>30</v>
@@ -4180,35 +4179,35 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="0" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="15" t="n">
+      <c r="Q51" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" s="16" t="n">
         <f aca="false">INT(T51/U51)</f>
-        <v>362548</v>
+        <v>179279</v>
       </c>
       <c r="S51" s="0" t="n">
-        <f aca="false">S$6</f>
-        <v>7250977</v>
-      </c>
-      <c r="T51" s="15" t="n">
+        <f aca="false">S$5</f>
+        <v>3585585</v>
+      </c>
+      <c r="T51" s="16" t="n">
         <f aca="false">INT(S51/10)</f>
-        <v>725097</v>
+        <v>358558</v>
       </c>
       <c r="U51" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="13" t="n">
         <f aca="false">A51+1</f>
         <v>50</v>
       </c>
@@ -4219,25 +4218,25 @@
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G52" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H52" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="F52" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G52" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H52" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>30</v>
@@ -4250,35 +4249,35 @@
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="0" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q52" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="16" t="n">
         <f aca="false">INT(T52/U52)</f>
-        <v>362548</v>
+        <v>179279</v>
       </c>
       <c r="S52" s="0" t="n">
-        <f aca="false">S$6</f>
-        <v>7250977</v>
-      </c>
-      <c r="T52" s="15" t="n">
+        <f aca="false">S$5</f>
+        <v>3585585</v>
+      </c>
+      <c r="T52" s="16" t="n">
         <f aca="false">INT(S52/10)</f>
-        <v>725097</v>
+        <v>358558</v>
       </c>
       <c r="U52" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="13" t="n">
         <f aca="false">A52+1</f>
         <v>51</v>
       </c>
@@ -4289,25 +4288,25 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G53" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="F53" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>30</v>
@@ -4322,35 +4321,35 @@
         <v>30</v>
       </c>
       <c r="N53" s="0" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R53" s="16" t="n">
         <f aca="false">INT(T53/U53)</f>
-        <v>362548</v>
+        <v>179279</v>
       </c>
       <c r="S53" s="0" t="n">
-        <f aca="false">S$6</f>
-        <v>7250977</v>
-      </c>
-      <c r="T53" s="15" t="n">
+        <f aca="false">S$5</f>
+        <v>3585585</v>
+      </c>
+      <c r="T53" s="16" t="n">
         <f aca="false">INT(S53/10)</f>
-        <v>725097</v>
+        <v>358558</v>
       </c>
       <c r="U53" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="13" t="n">
         <f aca="false">A53+1</f>
         <v>52</v>
       </c>
@@ -4361,25 +4360,25 @@
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G54" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H54" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="F54" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>30</v>
@@ -4393,32 +4392,32 @@
         <v>128</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="15" t="n">
+      <c r="Q54" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="16" t="n">
         <f aca="false">INT(T54/U54)</f>
-        <v>362548</v>
+        <v>361725</v>
       </c>
       <c r="S54" s="0" t="n">
         <f aca="false">S$6</f>
-        <v>7250977</v>
-      </c>
-      <c r="T54" s="15" t="n">
+        <v>7234506</v>
+      </c>
+      <c r="T54" s="16" t="n">
         <f aca="false">INT(S54/10)</f>
-        <v>725097</v>
+        <v>723450</v>
       </c>
       <c r="U54" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="13" t="n">
         <f aca="false">A54+1</f>
         <v>53</v>
       </c>
@@ -4429,25 +4428,25 @@
         <v>4</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G55" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H55" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="F55" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G55" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H55" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>30</v>
@@ -4463,32 +4462,32 @@
         <v>128</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q55" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="16" t="n">
         <f aca="false">INT(T55/U55)</f>
-        <v>362548</v>
+        <v>361725</v>
       </c>
       <c r="S55" s="0" t="n">
         <f aca="false">S$6</f>
-        <v>7250977</v>
-      </c>
-      <c r="T55" s="15" t="n">
+        <v>7234506</v>
+      </c>
+      <c r="T55" s="16" t="n">
         <f aca="false">INT(S55/10)</f>
-        <v>725097</v>
+        <v>723450</v>
       </c>
       <c r="U55" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="13" t="n">
         <f aca="false">A55+1</f>
         <v>54</v>
       </c>
@@ -4499,25 +4498,25 @@
         <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G56" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H56" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="F56" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H56" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>30</v>
@@ -4535,32 +4534,32 @@
         <v>128</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R56" s="16" t="n">
         <f aca="false">INT(T56/U56)</f>
-        <v>362548</v>
+        <v>361725</v>
       </c>
       <c r="S56" s="0" t="n">
         <f aca="false">S$6</f>
-        <v>7250977</v>
-      </c>
-      <c r="T56" s="15" t="n">
+        <v>7234506</v>
+      </c>
+      <c r="T56" s="16" t="n">
         <f aca="false">INT(S56/10)</f>
-        <v>725097</v>
+        <v>723450</v>
       </c>
       <c r="U56" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="13" t="n">
         <f aca="false">A56+1</f>
         <v>55</v>
       </c>
@@ -4571,25 +4570,25 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F57" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G57" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H57" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="F57" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G57" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H57" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>30</v>
@@ -4600,35 +4599,35 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="0" t="n">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q57" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="15" t="n">
+      <c r="Q57" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="16" t="n">
         <f aca="false">INT(T57/U57)</f>
-        <v>362548</v>
+        <v>515890</v>
       </c>
       <c r="S57" s="0" t="n">
-        <f aca="false">S$6</f>
-        <v>7250977</v>
-      </c>
-      <c r="T57" s="15" t="n">
+        <f aca="false">S$7</f>
+        <v>10317812</v>
+      </c>
+      <c r="T57" s="16" t="n">
         <f aca="false">INT(S57/10)</f>
-        <v>725097</v>
+        <v>1031781</v>
       </c>
       <c r="U57" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="13" t="n">
         <f aca="false">A57+1</f>
         <v>56</v>
       </c>
@@ -4639,25 +4638,25 @@
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F58" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G58" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H58" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="F58" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H58" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>30</v>
@@ -4670,35 +4669,35 @@
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="0" t="n">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q58" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="16" t="n">
         <f aca="false">INT(T58/U58)</f>
-        <v>362548</v>
+        <v>515890</v>
       </c>
       <c r="S58" s="0" t="n">
-        <f aca="false">S$6</f>
-        <v>7250977</v>
-      </c>
-      <c r="T58" s="15" t="n">
+        <f aca="false">S$7</f>
+        <v>10317812</v>
+      </c>
+      <c r="T58" s="16" t="n">
         <f aca="false">INT(S58/10)</f>
-        <v>725097</v>
+        <v>1031781</v>
       </c>
       <c r="U58" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="13" t="n">
         <f aca="false">A58+1</f>
         <v>57</v>
       </c>
@@ -4709,25 +4708,25 @@
         <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G59" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H59" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="F59" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G59" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H59" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>30</v>
@@ -4742,35 +4741,35 @@
         <v>30</v>
       </c>
       <c r="N59" s="0" t="n">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R59" s="16" t="n">
         <f aca="false">INT(T59/U59)</f>
-        <v>362548</v>
+        <v>515890</v>
       </c>
       <c r="S59" s="0" t="n">
-        <f aca="false">S$6</f>
-        <v>7250977</v>
-      </c>
-      <c r="T59" s="15" t="n">
+        <f aca="false">S$7</f>
+        <v>10317812</v>
+      </c>
+      <c r="T59" s="16" t="n">
         <f aca="false">INT(S59/10)</f>
-        <v>725097</v>
+        <v>1031781</v>
       </c>
       <c r="U59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="13" t="n">
         <f aca="false">A59+1</f>
         <v>58</v>
       </c>
@@ -4781,25 +4780,25 @@
         <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G60" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H60" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="F60" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G60" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H60" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>30</v>
@@ -4810,35 +4809,35 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="0" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q60" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" s="15" t="n">
+      <c r="Q60" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="16" t="n">
         <f aca="false">INT(T60/U60)</f>
-        <v>514784</v>
+        <v>910827</v>
       </c>
       <c r="S60" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>10295681</v>
-      </c>
-      <c r="T60" s="15" t="n">
+        <f aca="false">S$8</f>
+        <v>18216552</v>
+      </c>
+      <c r="T60" s="16" t="n">
         <f aca="false">INT(S60/10)</f>
-        <v>1029568</v>
+        <v>1821655</v>
       </c>
       <c r="U60" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="13" t="n">
         <f aca="false">A60+1</f>
         <v>59</v>
       </c>
@@ -4849,25 +4848,25 @@
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G61" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H61" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="F61" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G61" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H61" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>30</v>
@@ -4880,35 +4879,35 @@
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="0" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q61" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="16" t="n">
         <f aca="false">INT(T61/U61)</f>
-        <v>514784</v>
+        <v>910827</v>
       </c>
       <c r="S61" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>10295681</v>
-      </c>
-      <c r="T61" s="15" t="n">
+        <f aca="false">S$8</f>
+        <v>18216552</v>
+      </c>
+      <c r="T61" s="16" t="n">
         <f aca="false">INT(S61/10)</f>
-        <v>1029568</v>
+        <v>1821655</v>
       </c>
       <c r="U61" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="13" t="n">
         <f aca="false">A61+1</f>
         <v>60</v>
       </c>
@@ -4919,25 +4918,25 @@
         <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G62" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H62" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="F62" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G62" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H62" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>30</v>
@@ -4952,35 +4951,35 @@
         <v>30</v>
       </c>
       <c r="N62" s="0" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R62" s="16" t="n">
         <f aca="false">INT(T62/U62)</f>
-        <v>514784</v>
+        <v>910827</v>
       </c>
       <c r="S62" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>10295681</v>
-      </c>
-      <c r="T62" s="15" t="n">
+        <f aca="false">S$8</f>
+        <v>18216552</v>
+      </c>
+      <c r="T62" s="16" t="n">
         <f aca="false">INT(S62/10)</f>
-        <v>1029568</v>
+        <v>1821655</v>
       </c>
       <c r="U62" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="13" t="n">
         <f aca="false">A62+1</f>
         <v>61</v>
       </c>
@@ -4991,20 +4990,20 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F63" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G63" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H63" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="F63" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G63" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H63" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5020,35 +5019,35 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="0" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q63" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" s="15" t="n">
+      <c r="Q63" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" s="16" t="n">
         <f aca="false">INT(T63/U63)</f>
-        <v>514784</v>
+        <v>23264</v>
       </c>
       <c r="S63" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>10295681</v>
-      </c>
-      <c r="T63" s="15" t="n">
+        <f aca="false">S$3</f>
+        <v>465289</v>
+      </c>
+      <c r="T63" s="16" t="n">
         <f aca="false">INT(S63/10)</f>
-        <v>1029568</v>
+        <v>46528</v>
       </c>
       <c r="U63" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="13" t="n">
         <f aca="false">A63+1</f>
         <v>62</v>
       </c>
@@ -5059,25 +5058,25 @@
         <v>4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G64" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H64" s="13" t="n">
+        <v>104</v>
+      </c>
+      <c r="F64" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G64" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H64" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>30</v>
@@ -5090,35 +5089,35 @@
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="0" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q64" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" s="16" t="n">
         <f aca="false">INT(T64/U64)</f>
-        <v>514784</v>
+        <v>23264</v>
       </c>
       <c r="S64" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>10295681</v>
-      </c>
-      <c r="T64" s="15" t="n">
+        <f aca="false">S$3</f>
+        <v>465289</v>
+      </c>
+      <c r="T64" s="16" t="n">
         <f aca="false">INT(S64/10)</f>
-        <v>1029568</v>
+        <v>46528</v>
       </c>
       <c r="U64" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="13" t="n">
         <f aca="false">A64+1</f>
         <v>63</v>
       </c>
@@ -5129,25 +5128,25 @@
         <v>4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F65" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G65" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H65" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="F65" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G65" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H65" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>30</v>
@@ -5162,35 +5161,35 @@
         <v>30</v>
       </c>
       <c r="N65" s="0" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R65" s="16" t="n">
         <f aca="false">INT(T65/U65)</f>
-        <v>514784</v>
+        <v>23264</v>
       </c>
       <c r="S65" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>10295681</v>
-      </c>
-      <c r="T65" s="15" t="n">
+        <f aca="false">S$3</f>
+        <v>465289</v>
+      </c>
+      <c r="T65" s="16" t="n">
         <f aca="false">INT(S65/10)</f>
-        <v>1029568</v>
+        <v>46528</v>
       </c>
       <c r="U65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="13" t="n">
         <f aca="false">A65+1</f>
         <v>64</v>
       </c>
@@ -5201,25 +5200,25 @@
         <v>4</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F66" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G66" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H66" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="F66" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G66" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H66" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>30</v>
@@ -5230,35 +5229,35 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="0" t="n">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P66" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q66" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" s="15" t="n">
+      <c r="Q66" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="16" t="n">
         <f aca="false">INT(T66/U66)</f>
-        <v>514784</v>
+        <v>80815</v>
       </c>
       <c r="S66" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>10295681</v>
-      </c>
-      <c r="T66" s="15" t="n">
+        <f aca="false">S$4</f>
+        <v>1616309</v>
+      </c>
+      <c r="T66" s="16" t="n">
         <f aca="false">INT(S66/10)</f>
-        <v>1029568</v>
+        <v>161630</v>
       </c>
       <c r="U66" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="13" t="n">
         <f aca="false">A66+1</f>
         <v>65</v>
       </c>
@@ -5269,25 +5268,25 @@
         <v>4</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G67" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H67" s="13" t="n">
+        <v>104</v>
+      </c>
+      <c r="F67" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G67" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H67" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>30</v>
@@ -5300,35 +5299,35 @@
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="0" t="n">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q67" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="16" t="n">
         <f aca="false">INT(T67/U67)</f>
-        <v>514784</v>
+        <v>80815</v>
       </c>
       <c r="S67" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>10295681</v>
-      </c>
-      <c r="T67" s="15" t="n">
+        <f aca="false">S$4</f>
+        <v>1616309</v>
+      </c>
+      <c r="T67" s="16" t="n">
         <f aca="false">INT(S67/10)</f>
-        <v>1029568</v>
+        <v>161630</v>
       </c>
       <c r="U67" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="13" t="n">
         <f aca="false">A67+1</f>
         <v>66</v>
       </c>
@@ -5339,25 +5338,25 @@
         <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F68" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G68" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H68" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="F68" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G68" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H68" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>30</v>
@@ -5372,35 +5371,35 @@
         <v>30</v>
       </c>
       <c r="N68" s="0" t="n">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R68" s="16" t="n">
         <f aca="false">INT(T68/U68)</f>
-        <v>514784</v>
+        <v>80815</v>
       </c>
       <c r="S68" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>10295681</v>
-      </c>
-      <c r="T68" s="15" t="n">
+        <f aca="false">S$4</f>
+        <v>1616309</v>
+      </c>
+      <c r="T68" s="16" t="n">
         <f aca="false">INT(S68/10)</f>
-        <v>1029568</v>
+        <v>161630</v>
       </c>
       <c r="U68" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="13" t="n">
         <f aca="false">A68+1</f>
         <v>67</v>
       </c>
@@ -5411,25 +5410,25 @@
         <v>4</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G69" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H69" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="F69" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G69" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H69" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>30</v>
@@ -5440,35 +5439,35 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="0" t="n">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q69" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" s="15" t="n">
+      <c r="Q69" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" s="16" t="n">
         <f aca="false">INT(T69/U69)</f>
-        <v>514784</v>
+        <v>179279</v>
       </c>
       <c r="S69" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>10295681</v>
-      </c>
-      <c r="T69" s="15" t="n">
+        <f aca="false">S$5</f>
+        <v>3585585</v>
+      </c>
+      <c r="T69" s="16" t="n">
         <f aca="false">INT(S69/10)</f>
-        <v>1029568</v>
+        <v>358558</v>
       </c>
       <c r="U69" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="13" t="n">
         <f aca="false">A69+1</f>
         <v>68</v>
       </c>
@@ -5479,25 +5478,25 @@
         <v>4</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F70" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G70" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H70" s="13" t="n">
+        <v>104</v>
+      </c>
+      <c r="F70" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G70" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H70" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>30</v>
@@ -5510,35 +5509,35 @@
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="0" t="n">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q70" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" s="16" t="n">
         <f aca="false">INT(T70/U70)</f>
-        <v>514784</v>
+        <v>179279</v>
       </c>
       <c r="S70" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>10295681</v>
-      </c>
-      <c r="T70" s="15" t="n">
+        <f aca="false">S$5</f>
+        <v>3585585</v>
+      </c>
+      <c r="T70" s="16" t="n">
         <f aca="false">INT(S70/10)</f>
-        <v>1029568</v>
+        <v>358558</v>
       </c>
       <c r="U70" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="13" t="n">
         <f aca="false">A70+1</f>
         <v>69</v>
       </c>
@@ -5549,25 +5548,25 @@
         <v>4</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F71" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G71" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H71" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="F71" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G71" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H71" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>30</v>
@@ -5582,35 +5581,35 @@
         <v>30</v>
       </c>
       <c r="N71" s="0" t="n">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q71" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R71" s="16" t="n">
         <f aca="false">INT(T71/U71)</f>
-        <v>514784</v>
+        <v>179279</v>
       </c>
       <c r="S71" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>10295681</v>
-      </c>
-      <c r="T71" s="15" t="n">
+        <f aca="false">S$5</f>
+        <v>3585585</v>
+      </c>
+      <c r="T71" s="16" t="n">
         <f aca="false">INT(S71/10)</f>
-        <v>1029568</v>
+        <v>358558</v>
       </c>
       <c r="U71" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="13" t="n">
         <f aca="false">A71+1</f>
         <v>70</v>
       </c>
@@ -5621,25 +5620,25 @@
         <v>4</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F72" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G72" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H72" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="F72" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G72" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H72" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>30</v>
@@ -5650,35 +5649,35 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="0" t="n">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P72" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q72" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" s="15" t="n">
+      <c r="Q72" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" s="16" t="n">
         <f aca="false">INT(T72/U72)</f>
-        <v>911936</v>
+        <v>361725</v>
       </c>
       <c r="S72" s="0" t="n">
-        <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T72" s="15" t="n">
+        <f aca="false">S$6</f>
+        <v>7234506</v>
+      </c>
+      <c r="T72" s="16" t="n">
         <f aca="false">INT(S72/10)</f>
-        <v>1823872</v>
+        <v>723450</v>
       </c>
       <c r="U72" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="13" t="n">
         <f aca="false">A72+1</f>
         <v>71</v>
       </c>
@@ -5689,25 +5688,25 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G73" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H73" s="13" t="n">
+        <v>104</v>
+      </c>
+      <c r="F73" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G73" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H73" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>30</v>
@@ -5720,35 +5719,35 @@
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="0" t="n">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q73" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" s="16" t="n">
         <f aca="false">INT(T73/U73)</f>
-        <v>911936</v>
+        <v>361725</v>
       </c>
       <c r="S73" s="0" t="n">
-        <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T73" s="15" t="n">
+        <f aca="false">S$6</f>
+        <v>7234506</v>
+      </c>
+      <c r="T73" s="16" t="n">
         <f aca="false">INT(S73/10)</f>
-        <v>1823872</v>
+        <v>723450</v>
       </c>
       <c r="U73" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="13" t="n">
         <f aca="false">A73+1</f>
         <v>72</v>
       </c>
@@ -5759,25 +5758,25 @@
         <v>4</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G74" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H74" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="F74" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G74" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H74" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>30</v>
@@ -5792,35 +5791,35 @@
         <v>30</v>
       </c>
       <c r="N74" s="0" t="n">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q74" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R74" s="16" t="n">
         <f aca="false">INT(T74/U74)</f>
-        <v>911936</v>
+        <v>361725</v>
       </c>
       <c r="S74" s="0" t="n">
-        <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T74" s="15" t="n">
+        <f aca="false">S$6</f>
+        <v>7234506</v>
+      </c>
+      <c r="T74" s="16" t="n">
         <f aca="false">INT(S74/10)</f>
-        <v>1823872</v>
+        <v>723450</v>
       </c>
       <c r="U74" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="13" t="n">
         <f aca="false">A74+1</f>
         <v>73</v>
       </c>
@@ -5831,25 +5830,25 @@
         <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F75" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G75" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H75" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="F75" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G75" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H75" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>30</v>
@@ -5860,35 +5859,35 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="0" t="n">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P75" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q75" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" s="15" t="n">
+      <c r="Q75" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" s="16" t="n">
         <f aca="false">INT(T75/U75)</f>
-        <v>911936</v>
+        <v>515890</v>
       </c>
       <c r="S75" s="0" t="n">
-        <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T75" s="15" t="n">
+        <f aca="false">S$7</f>
+        <v>10317812</v>
+      </c>
+      <c r="T75" s="16" t="n">
         <f aca="false">INT(S75/10)</f>
-        <v>1823872</v>
+        <v>1031781</v>
       </c>
       <c r="U75" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="13" t="n">
         <f aca="false">A75+1</f>
         <v>74</v>
       </c>
@@ -5899,25 +5898,25 @@
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F76" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G76" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H76" s="13" t="n">
+        <v>104</v>
+      </c>
+      <c r="F76" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G76" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H76" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>30</v>
@@ -5930,35 +5929,35 @@
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="0" t="n">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q76" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" s="16" t="n">
         <f aca="false">INT(T76/U76)</f>
-        <v>911936</v>
+        <v>515890</v>
       </c>
       <c r="S76" s="0" t="n">
-        <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T76" s="15" t="n">
+        <f aca="false">S$7</f>
+        <v>10317812</v>
+      </c>
+      <c r="T76" s="16" t="n">
         <f aca="false">INT(S76/10)</f>
-        <v>1823872</v>
+        <v>1031781</v>
       </c>
       <c r="U76" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="13" t="n">
         <f aca="false">A76+1</f>
         <v>75</v>
       </c>
@@ -5969,25 +5968,25 @@
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F77" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G77" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H77" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="F77" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G77" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H77" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>30</v>
@@ -6002,35 +6001,35 @@
         <v>30</v>
       </c>
       <c r="N77" s="0" t="n">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R77" s="16" t="n">
         <f aca="false">INT(T77/U77)</f>
-        <v>911936</v>
+        <v>515890</v>
       </c>
       <c r="S77" s="0" t="n">
-        <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T77" s="15" t="n">
+        <f aca="false">S$7</f>
+        <v>10317812</v>
+      </c>
+      <c r="T77" s="16" t="n">
         <f aca="false">INT(S77/10)</f>
-        <v>1823872</v>
+        <v>1031781</v>
       </c>
       <c r="U77" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="13" t="n">
         <f aca="false">A77+1</f>
         <v>76</v>
       </c>
@@ -6041,25 +6040,25 @@
         <v>4</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F78" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G78" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H78" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="F78" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G78" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H78" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>30</v>
@@ -6073,32 +6072,32 @@
         <v>192</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P78" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q78" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" s="15" t="n">
+      <c r="Q78" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" s="16" t="n">
         <f aca="false">INT(T78/U78)</f>
-        <v>911936</v>
+        <v>910827</v>
       </c>
       <c r="S78" s="0" t="n">
         <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T78" s="15" t="n">
+        <v>18216552</v>
+      </c>
+      <c r="T78" s="16" t="n">
         <f aca="false">INT(S78/10)</f>
-        <v>1823872</v>
+        <v>1821655</v>
       </c>
       <c r="U78" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="13" t="n">
         <f aca="false">A78+1</f>
         <v>77</v>
       </c>
@@ -6109,25 +6108,25 @@
         <v>4</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G79" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H79" s="13" t="n">
+        <v>104</v>
+      </c>
+      <c r="F79" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G79" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H79" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>30</v>
@@ -6143,32 +6142,32 @@
         <v>192</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q79" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" s="16" t="n">
         <f aca="false">INT(T79/U79)</f>
-        <v>911936</v>
+        <v>910827</v>
       </c>
       <c r="S79" s="0" t="n">
         <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T79" s="15" t="n">
+        <v>18216552</v>
+      </c>
+      <c r="T79" s="16" t="n">
         <f aca="false">INT(S79/10)</f>
-        <v>1823872</v>
+        <v>1821655</v>
       </c>
       <c r="U79" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="13" t="n">
         <f aca="false">A79+1</f>
         <v>78</v>
       </c>
@@ -6179,25 +6178,25 @@
         <v>4</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G80" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H80" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="F80" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G80" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H80" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>30</v>
@@ -6215,239 +6214,554 @@
         <v>192</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" s="15" t="n">
+        <v>131072</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>131072</v>
+      </c>
+      <c r="R80" s="16" t="n">
         <f aca="false">INT(T80/U80)</f>
-        <v>911936</v>
+        <v>910827</v>
       </c>
       <c r="S80" s="0" t="n">
         <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T80" s="15" t="n">
+        <v>18216552</v>
+      </c>
+      <c r="T80" s="16" t="n">
         <f aca="false">INT(S80/10)</f>
-        <v>1823872</v>
+        <v>1821655</v>
       </c>
       <c r="U80" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <f aca="false">A80+1</f>
-        <v>79</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F81" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G81" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H81" s="13" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="O81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R81" s="15" t="n">
-        <f aca="false">INT(T81/U81)</f>
-        <v>911936</v>
-      </c>
-      <c r="S81" s="0" t="n">
-        <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T81" s="15" t="n">
-        <f aca="false">INT(S81/10)</f>
-        <v>1823872</v>
-      </c>
-      <c r="U81" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <f aca="false">A81+1</f>
-        <v>80</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F82" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G82" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H82" s="13" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="1"/>
-      <c r="N82" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="O82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" s="15" t="n">
-        <f aca="false">INT(T82/U82)</f>
-        <v>911936</v>
-      </c>
-      <c r="S82" s="0" t="n">
-        <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T82" s="15" t="n">
-        <f aca="false">INT(S82/10)</f>
-        <v>1823872</v>
-      </c>
-      <c r="U82" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <f aca="false">A82+1</f>
-        <v>81</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F83" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G83" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H83" s="13" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N83" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="O83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" s="15" t="n">
-        <f aca="false">INT(T83/U83)</f>
-        <v>911936</v>
-      </c>
-      <c r="S83" s="0" t="n">
-        <f aca="false">S$8</f>
-        <v>18238725</v>
-      </c>
-      <c r="T83" s="15" t="n">
-        <f aca="false">INT(S83/10)</f>
-        <v>1823872</v>
-      </c>
-      <c r="U83" s="0" t="n">
-        <v>2</v>
-      </c>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0"/>
+      <c r="B98" s="0"/>
+      <c r="C98" s="0"/>
+      <c r="T98" s="0"/>
+      <c r="U98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0"/>
+      <c r="B99" s="0"/>
+      <c r="C99" s="0"/>
+      <c r="T99" s="0"/>
+      <c r="U99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0"/>
+      <c r="B100" s="0"/>
+      <c r="C100" s="0"/>
+      <c r="T100" s="0"/>
+      <c r="U100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0"/>
+      <c r="B101" s="0"/>
+      <c r="C101" s="0"/>
+      <c r="T101" s="0"/>
+      <c r="U101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0"/>
+      <c r="B102" s="0"/>
+      <c r="C102" s="0"/>
+      <c r="T102" s="0"/>
+      <c r="U102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0"/>
+      <c r="B103" s="0"/>
+      <c r="C103" s="0"/>
+      <c r="T103" s="0"/>
+      <c r="U103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0"/>
+      <c r="B104" s="0"/>
+      <c r="C104" s="0"/>
+      <c r="T104" s="0"/>
+      <c r="U104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0"/>
+      <c r="B105" s="0"/>
+      <c r="C105" s="0"/>
+      <c r="T105" s="0"/>
+      <c r="U105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0"/>
+      <c r="B106" s="0"/>
+      <c r="C106" s="0"/>
+      <c r="T106" s="0"/>
+      <c r="U106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0"/>
+      <c r="B107" s="0"/>
+      <c r="C107" s="0"/>
+      <c r="T107" s="0"/>
+      <c r="U107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0"/>
+      <c r="B108" s="0"/>
+      <c r="C108" s="0"/>
+      <c r="T108" s="0"/>
+      <c r="U108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0"/>
+      <c r="B109" s="0"/>
+      <c r="C109" s="0"/>
+      <c r="T109" s="0"/>
+      <c r="U109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0"/>
+      <c r="B110" s="0"/>
+      <c r="C110" s="0"/>
+      <c r="T110" s="0"/>
+      <c r="U110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0"/>
+      <c r="B111" s="0"/>
+      <c r="C111" s="0"/>
+      <c r="T111" s="0"/>
+      <c r="U111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0"/>
+      <c r="B112" s="0"/>
+      <c r="C112" s="0"/>
+      <c r="T112" s="0"/>
+      <c r="U112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0"/>
+      <c r="B113" s="0"/>
+      <c r="C113" s="0"/>
+      <c r="T113" s="0"/>
+      <c r="U113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0"/>
+      <c r="B114" s="0"/>
+      <c r="C114" s="0"/>
+      <c r="T114" s="0"/>
+      <c r="U114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0"/>
+      <c r="B115" s="0"/>
+      <c r="C115" s="0"/>
+      <c r="T115" s="0"/>
+      <c r="U115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0"/>
+      <c r="B116" s="0"/>
+      <c r="C116" s="0"/>
+      <c r="T116" s="0"/>
+      <c r="U116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0"/>
+      <c r="B117" s="0"/>
+      <c r="C117" s="0"/>
+      <c r="T117" s="0"/>
+      <c r="U117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0"/>
+      <c r="B118" s="0"/>
+      <c r="C118" s="0"/>
+      <c r="T118" s="0"/>
+      <c r="U118" s="0"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0"/>
+      <c r="B119" s="0"/>
+      <c r="C119" s="0"/>
+      <c r="T119" s="0"/>
+      <c r="U119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0"/>
+      <c r="B120" s="0"/>
+      <c r="C120" s="0"/>
+      <c r="T120" s="0"/>
+      <c r="U120" s="0"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0"/>
+      <c r="B121" s="0"/>
+      <c r="C121" s="0"/>
+      <c r="T121" s="0"/>
+      <c r="U121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0"/>
+      <c r="B122" s="0"/>
+      <c r="C122" s="0"/>
+      <c r="T122" s="0"/>
+      <c r="U122" s="0"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0"/>
+      <c r="B123" s="0"/>
+      <c r="C123" s="0"/>
+      <c r="T123" s="0"/>
+      <c r="U123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0"/>
+      <c r="B124" s="0"/>
+      <c r="C124" s="0"/>
+      <c r="T124" s="0"/>
+      <c r="U124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0"/>
+      <c r="B125" s="0"/>
+      <c r="C125" s="0"/>
+      <c r="T125" s="0"/>
+      <c r="U125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0"/>
+      <c r="B126" s="0"/>
+      <c r="C126" s="0"/>
+      <c r="T126" s="0"/>
+      <c r="U126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0"/>
+      <c r="B127" s="0"/>
+      <c r="C127" s="0"/>
+      <c r="T127" s="0"/>
+      <c r="U127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0"/>
+      <c r="B128" s="0"/>
+      <c r="C128" s="0"/>
+      <c r="T128" s="0"/>
+      <c r="U128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0"/>
+      <c r="B129" s="0"/>
+      <c r="C129" s="0"/>
+      <c r="T129" s="0"/>
+      <c r="U129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0"/>
+      <c r="B130" s="0"/>
+      <c r="C130" s="0"/>
+      <c r="T130" s="0"/>
+      <c r="U130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0"/>
+      <c r="B131" s="0"/>
+      <c r="C131" s="0"/>
+      <c r="T131" s="0"/>
+      <c r="U131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0"/>
+      <c r="B132" s="0"/>
+      <c r="C132" s="0"/>
+      <c r="T132" s="0"/>
+      <c r="U132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0"/>
+      <c r="B133" s="0"/>
+      <c r="C133" s="0"/>
+      <c r="T133" s="0"/>
+      <c r="U133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0"/>
+      <c r="B134" s="0"/>
+      <c r="C134" s="0"/>
+      <c r="T134" s="0"/>
+      <c r="U134" s="0"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0"/>
+      <c r="B135" s="0"/>
+      <c r="C135" s="0"/>
+      <c r="T135" s="0"/>
+      <c r="U135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0"/>
+      <c r="B136" s="0"/>
+      <c r="C136" s="0"/>
+      <c r="T136" s="0"/>
+      <c r="U136" s="0"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0"/>
+      <c r="B137" s="0"/>
+      <c r="C137" s="0"/>
+      <c r="T137" s="0"/>
+      <c r="U137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0"/>
+      <c r="B138" s="0"/>
+      <c r="C138" s="0"/>
+      <c r="T138" s="0"/>
+      <c r="U138" s="0"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0"/>
+      <c r="B139" s="0"/>
+      <c r="C139" s="0"/>
+      <c r="T139" s="0"/>
+      <c r="U139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0"/>
+      <c r="B140" s="0"/>
+      <c r="C140" s="0"/>
+      <c r="T140" s="0"/>
+      <c r="U140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0"/>
+      <c r="B141" s="0"/>
+      <c r="C141" s="0"/>
+      <c r="T141" s="0"/>
+      <c r="U141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0"/>
+      <c r="B142" s="0"/>
+      <c r="C142" s="0"/>
+      <c r="T142" s="0"/>
+      <c r="U142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0"/>
+      <c r="B143" s="0"/>
+      <c r="C143" s="0"/>
+      <c r="T143" s="0"/>
+      <c r="U143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0"/>
+      <c r="B144" s="0"/>
+      <c r="C144" s="0"/>
+      <c r="T144" s="0"/>
+      <c r="U144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0"/>
+      <c r="B145" s="0"/>
+      <c r="C145" s="0"/>
+      <c r="T145" s="0"/>
+      <c r="U145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0"/>
+      <c r="B146" s="0"/>
+      <c r="C146" s="0"/>
+      <c r="T146" s="0"/>
+      <c r="U146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0"/>
+      <c r="B147" s="0"/>
+      <c r="C147" s="0"/>
+      <c r="T147" s="0"/>
+      <c r="U147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0"/>
+      <c r="B148" s="0"/>
+      <c r="C148" s="0"/>
+      <c r="T148" s="0"/>
+      <c r="U148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0"/>
+      <c r="B149" s="0"/>
+      <c r="C149" s="0"/>
+      <c r="T149" s="0"/>
+      <c r="U149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0"/>
+      <c r="B150" s="0"/>
+      <c r="C150" s="0"/>
+      <c r="T150" s="0"/>
+      <c r="U150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0"/>
+      <c r="B151" s="0"/>
+      <c r="C151" s="0"/>
+      <c r="T151" s="0"/>
+      <c r="U151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0"/>
+      <c r="B152" s="0"/>
+      <c r="C152" s="0"/>
+      <c r="T152" s="0"/>
+      <c r="U152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0"/>
+      <c r="B153" s="0"/>
+      <c r="C153" s="0"/>
+      <c r="T153" s="0"/>
+      <c r="U153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0"/>
+      <c r="B154" s="0"/>
+      <c r="C154" s="0"/>
+      <c r="T154" s="0"/>
+      <c r="U154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0"/>
+      <c r="B155" s="0"/>
+      <c r="C155" s="0"/>
+      <c r="T155" s="0"/>
+      <c r="U155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0"/>
+      <c r="B156" s="0"/>
+      <c r="C156" s="0"/>
+      <c r="T156" s="0"/>
+      <c r="U156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0"/>
+      <c r="B157" s="0"/>
+      <c r="C157" s="0"/>
+      <c r="T157" s="0"/>
+      <c r="U157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0"/>
+      <c r="B158" s="0"/>
+      <c r="C158" s="0"/>
+      <c r="T158" s="0"/>
+      <c r="U158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0"/>
+      <c r="B159" s="0"/>
+      <c r="C159" s="0"/>
+      <c r="T159" s="0"/>
+      <c r="U159" s="0"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0"/>
+      <c r="B160" s="0"/>
+      <c r="C160" s="0"/>
+      <c r="T160" s="0"/>
+      <c r="U160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0"/>
+      <c r="B161" s="0"/>
+      <c r="C161" s="0"/>
+      <c r="T161" s="0"/>
+      <c r="U161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0"/>
+      <c r="B162" s="0"/>
+      <c r="C162" s="0"/>
+      <c r="T162" s="0"/>
+      <c r="U162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0"/>
+      <c r="B163" s="0"/>
+      <c r="C163" s="0"/>
+      <c r="T163" s="0"/>
+      <c r="U163" s="0"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0"/>
+      <c r="B164" s="0"/>
+      <c r="C164" s="0"/>
+      <c r="T164" s="0"/>
+      <c r="U164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0"/>
+      <c r="B165" s="0"/>
+      <c r="C165" s="0"/>
+      <c r="T165" s="0"/>
+      <c r="U165" s="0"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0"/>
+      <c r="B166" s="0"/>
+      <c r="C166" s="0"/>
+      <c r="T166" s="0"/>
+      <c r="U166" s="0"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0"/>
+      <c r="B167" s="0"/>
+      <c r="C167" s="0"/>
+      <c r="T167" s="0"/>
+      <c r="U167" s="0"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0"/>
+      <c r="B168" s="0"/>
+      <c r="C168" s="0"/>
+      <c r="T168" s="0"/>
+      <c r="U168" s="0"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0"/>
+      <c r="B169" s="0"/>
+      <c r="C169" s="0"/>
+      <c r="T169" s="0"/>
+      <c r="U169" s="0"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0"/>
+      <c r="B170" s="0"/>
+      <c r="C170" s="0"/>
+      <c r="T170" s="0"/>
+      <c r="U170" s="0"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0"/>
+      <c r="B171" s="0"/>
+      <c r="C171" s="0"/>
+      <c r="T171" s="0"/>
+      <c r="U171" s="0"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0"/>
+      <c r="B172" s="0"/>
+      <c r="C172" s="0"/>
+      <c r="T172" s="0"/>
+      <c r="U172" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/experiment/xlsx/experiments_SD-VBS_disparity_circle_pi4.xlsx
+++ b/experiment/xlsx/experiments_SD-VBS_disparity_circle_pi4.xlsx
@@ -663,11 +663,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.81"/>
@@ -1242,7 +1242,7 @@
         <v>32</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>32</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q10" s="15" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>32</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R11" s="16" t="n">
         <f aca="false">INT(T11/U11)</f>
@@ -1452,7 +1452,7 @@
         <v>64</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P12" s="1" t="n">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>64</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q13" s="15" t="n">
         <v>0</v>
@@ -1594,13 +1594,13 @@
         <v>64</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R14" s="16" t="n">
         <f aca="false">INT(T14/U14)</f>
@@ -1662,7 +1662,7 @@
         <v>96</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P15" s="1" t="n">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>96</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q16" s="15" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>96</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R17" s="16" t="n">
         <f aca="false">INT(T17/U17)</f>
@@ -1872,7 +1872,7 @@
         <v>128</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>0</v>
@@ -1942,10 +1942,10 @@
         <v>128</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q19" s="15" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>128</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R20" s="16" t="n">
         <f aca="false">INT(T20/U20)</f>
@@ -2082,7 +2082,7 @@
         <v>160</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P21" s="1" t="n">
         <v>0</v>
@@ -2152,10 +2152,10 @@
         <v>160</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q22" s="15" t="n">
         <v>0</v>
@@ -2224,13 +2224,13 @@
         <v>160</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R23" s="16" t="n">
         <f aca="false">INT(T23/U23)</f>
@@ -2292,7 +2292,7 @@
         <v>192</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>192</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q25" s="15" t="n">
         <v>0</v>
@@ -2434,13 +2434,13 @@
         <v>192</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R26" s="16" t="n">
         <f aca="false">INT(T26/U26)</f>
@@ -2502,7 +2502,7 @@
         <v>32</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P27" s="1" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>32</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q28" s="15" t="n">
         <v>0</v>
@@ -2644,13 +2644,13 @@
         <v>32</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R29" s="16" t="n">
         <f aca="false">INT(T29/U29)</f>
@@ -2712,7 +2712,7 @@
         <v>64</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P30" s="1" t="n">
         <v>0</v>
@@ -2782,10 +2782,10 @@
         <v>64</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q31" s="15" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>64</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R32" s="16" t="n">
         <f aca="false">INT(T32/U32)</f>
@@ -2922,7 +2922,7 @@
         <v>96</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P33" s="1" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>96</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q34" s="15" t="n">
         <v>0</v>
@@ -3064,13 +3064,13 @@
         <v>96</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R35" s="16" t="n">
         <f aca="false">INT(T35/U35)</f>
@@ -3132,7 +3132,7 @@
         <v>128</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P36" s="1" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>128</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q37" s="15" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>128</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q38" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R38" s="16" t="n">
         <f aca="false">INT(T38/U38)</f>
@@ -3342,7 +3342,7 @@
         <v>160</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P39" s="1" t="n">
         <v>0</v>
@@ -3412,10 +3412,10 @@
         <v>160</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q40" s="15" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>160</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q41" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R41" s="16" t="n">
         <f aca="false">INT(T41/U41)</f>
@@ -3552,7 +3552,7 @@
         <v>192</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P42" s="1" t="n">
         <v>0</v>
@@ -3622,10 +3622,10 @@
         <v>192</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q43" s="15" t="n">
         <v>0</v>
@@ -3694,13 +3694,13 @@
         <v>192</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q44" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R44" s="16" t="n">
         <f aca="false">INT(T44/U44)</f>
@@ -3762,7 +3762,7 @@
         <v>32</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P45" s="1" t="n">
         <v>0</v>
@@ -3832,10 +3832,10 @@
         <v>32</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q46" s="15" t="n">
         <v>0</v>
@@ -3904,13 +3904,13 @@
         <v>32</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R47" s="16" t="n">
         <f aca="false">INT(T47/U47)</f>
@@ -3972,7 +3972,7 @@
         <v>64</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P48" s="1" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>64</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q49" s="15" t="n">
         <v>0</v>
@@ -4114,13 +4114,13 @@
         <v>64</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R50" s="16" t="n">
         <f aca="false">INT(T50/U50)</f>
@@ -4182,7 +4182,7 @@
         <v>96</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P51" s="1" t="n">
         <v>0</v>
@@ -4252,10 +4252,10 @@
         <v>96</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q52" s="15" t="n">
         <v>0</v>
@@ -4324,13 +4324,13 @@
         <v>96</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q53" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R53" s="16" t="n">
         <f aca="false">INT(T53/U53)</f>
@@ -4392,7 +4392,7 @@
         <v>128</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P54" s="1" t="n">
         <v>0</v>
@@ -4462,10 +4462,10 @@
         <v>128</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q55" s="15" t="n">
         <v>0</v>
@@ -4534,13 +4534,13 @@
         <v>128</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q56" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R56" s="16" t="n">
         <f aca="false">INT(T56/U56)</f>
@@ -4602,7 +4602,7 @@
         <v>160</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P57" s="1" t="n">
         <v>0</v>
@@ -4672,10 +4672,10 @@
         <v>160</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q58" s="15" t="n">
         <v>0</v>
@@ -4744,13 +4744,13 @@
         <v>160</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q59" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R59" s="16" t="n">
         <f aca="false">INT(T59/U59)</f>
@@ -4812,7 +4812,7 @@
         <v>192</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P60" s="1" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>192</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q61" s="15" t="n">
         <v>0</v>
@@ -4954,13 +4954,13 @@
         <v>192</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q62" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R62" s="16" t="n">
         <f aca="false">INT(T62/U62)</f>
@@ -5022,7 +5022,7 @@
         <v>32</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P63" s="1" t="n">
         <v>0</v>
@@ -5092,10 +5092,10 @@
         <v>32</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q64" s="15" t="n">
         <v>0</v>
@@ -5164,13 +5164,13 @@
         <v>32</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q65" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R65" s="16" t="n">
         <f aca="false">INT(T65/U65)</f>
@@ -5232,7 +5232,7 @@
         <v>64</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P66" s="1" t="n">
         <v>0</v>
@@ -5302,10 +5302,10 @@
         <v>64</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q67" s="15" t="n">
         <v>0</v>
@@ -5374,13 +5374,13 @@
         <v>64</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q68" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R68" s="16" t="n">
         <f aca="false">INT(T68/U68)</f>
@@ -5442,7 +5442,7 @@
         <v>96</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P69" s="1" t="n">
         <v>0</v>
@@ -5512,10 +5512,10 @@
         <v>96</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q70" s="15" t="n">
         <v>0</v>
@@ -5584,13 +5584,13 @@
         <v>96</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q71" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R71" s="16" t="n">
         <f aca="false">INT(T71/U71)</f>
@@ -5652,7 +5652,7 @@
         <v>128</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P72" s="1" t="n">
         <v>0</v>
@@ -5722,10 +5722,10 @@
         <v>128</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q73" s="15" t="n">
         <v>0</v>
@@ -5794,13 +5794,13 @@
         <v>128</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q74" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R74" s="16" t="n">
         <f aca="false">INT(T74/U74)</f>
@@ -5862,7 +5862,7 @@
         <v>160</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P75" s="1" t="n">
         <v>0</v>
@@ -5932,10 +5932,10 @@
         <v>160</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q76" s="15" t="n">
         <v>0</v>
@@ -6004,13 +6004,13 @@
         <v>160</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q77" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R77" s="16" t="n">
         <f aca="false">INT(T77/U77)</f>
@@ -6072,7 +6072,7 @@
         <v>192</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P78" s="1" t="n">
         <v>0</v>
@@ -6142,10 +6142,10 @@
         <v>192</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q79" s="15" t="n">
         <v>0</v>
@@ -6214,13 +6214,13 @@
         <v>192</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="Q80" s="1" t="n">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="R80" s="16" t="n">
         <f aca="false">INT(T80/U80)</f>

--- a/experiment/xlsx/experiments_SD-VBS_disparity_circle_pi4.xlsx
+++ b/experiment/xlsx/experiments_SD-VBS_disparity_circle_pi4.xlsx
@@ -515,7 +515,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -574,10 +574,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -663,11 +659,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.81"/>
@@ -1242,15 +1238,15 @@
         <v>32</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R9" s="15" t="n">
         <f aca="false">INT(T9/U9)</f>
         <v>23264</v>
       </c>
@@ -1258,7 +1254,7 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T9" s="16" t="n">
+      <c r="T9" s="15" t="n">
         <f aca="false">INT(S9/10)</f>
         <v>46528</v>
       </c>
@@ -1312,15 +1308,15 @@
         <v>32</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R10" s="15" t="n">
         <f aca="false">INT(T10/U10)</f>
         <v>23264</v>
       </c>
@@ -1328,7 +1324,7 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T10" s="16" t="n">
+      <c r="T10" s="15" t="n">
         <f aca="false">INT(S10/10)</f>
         <v>46528</v>
       </c>
@@ -1384,15 +1380,15 @@
         <v>32</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R11" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R11" s="15" t="n">
         <f aca="false">INT(T11/U11)</f>
         <v>23264</v>
       </c>
@@ -1400,7 +1396,7 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T11" s="16" t="n">
+      <c r="T11" s="15" t="n">
         <f aca="false">INT(S11/10)</f>
         <v>46528</v>
       </c>
@@ -1452,15 +1448,15 @@
         <v>64</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R12" s="15" t="n">
         <f aca="false">INT(T12/U12)</f>
         <v>80815</v>
       </c>
@@ -1468,7 +1464,7 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T12" s="16" t="n">
+      <c r="T12" s="15" t="n">
         <f aca="false">INT(S12/10)</f>
         <v>161630</v>
       </c>
@@ -1522,15 +1518,15 @@
         <v>64</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q13" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R13" s="15" t="n">
         <f aca="false">INT(T13/U13)</f>
         <v>80815</v>
       </c>
@@ -1538,7 +1534,7 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T13" s="16" t="n">
+      <c r="T13" s="15" t="n">
         <f aca="false">INT(S13/10)</f>
         <v>161630</v>
       </c>
@@ -1594,15 +1590,15 @@
         <v>64</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R14" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R14" s="15" t="n">
         <f aca="false">INT(T14/U14)</f>
         <v>80815</v>
       </c>
@@ -1610,7 +1606,7 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T14" s="16" t="n">
+      <c r="T14" s="15" t="n">
         <f aca="false">INT(S14/10)</f>
         <v>161630</v>
       </c>
@@ -1662,15 +1658,15 @@
         <v>96</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R15" s="15" t="n">
         <f aca="false">INT(T15/U15)</f>
         <v>179279</v>
       </c>
@@ -1678,7 +1674,7 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T15" s="16" t="n">
+      <c r="T15" s="15" t="n">
         <f aca="false">INT(S15/10)</f>
         <v>358558</v>
       </c>
@@ -1732,15 +1728,15 @@
         <v>96</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R16" s="15" t="n">
         <f aca="false">INT(T16/U16)</f>
         <v>179279</v>
       </c>
@@ -1748,7 +1744,7 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T16" s="16" t="n">
+      <c r="T16" s="15" t="n">
         <f aca="false">INT(S16/10)</f>
         <v>358558</v>
       </c>
@@ -1804,15 +1800,15 @@
         <v>96</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R17" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R17" s="15" t="n">
         <f aca="false">INT(T17/U17)</f>
         <v>179279</v>
       </c>
@@ -1820,7 +1816,7 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T17" s="16" t="n">
+      <c r="T17" s="15" t="n">
         <f aca="false">INT(S17/10)</f>
         <v>358558</v>
       </c>
@@ -1872,15 +1868,15 @@
         <v>128</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R18" s="15" t="n">
         <f aca="false">INT(T18/U18)</f>
         <v>361725</v>
       </c>
@@ -1888,7 +1884,7 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T18" s="16" t="n">
+      <c r="T18" s="15" t="n">
         <f aca="false">INT(S18/10)</f>
         <v>723450</v>
       </c>
@@ -1942,15 +1938,15 @@
         <v>128</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q19" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R19" s="15" t="n">
         <f aca="false">INT(T19/U19)</f>
         <v>361725</v>
       </c>
@@ -1958,7 +1954,7 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T19" s="16" t="n">
+      <c r="T19" s="15" t="n">
         <f aca="false">INT(S19/10)</f>
         <v>723450</v>
       </c>
@@ -2014,15 +2010,15 @@
         <v>128</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R20" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R20" s="15" t="n">
         <f aca="false">INT(T20/U20)</f>
         <v>361725</v>
       </c>
@@ -2030,7 +2026,7 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T20" s="16" t="n">
+      <c r="T20" s="15" t="n">
         <f aca="false">INT(S20/10)</f>
         <v>723450</v>
       </c>
@@ -2082,15 +2078,15 @@
         <v>160</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R21" s="15" t="n">
         <f aca="false">INT(T21/U21)</f>
         <v>515890</v>
       </c>
@@ -2098,7 +2094,7 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T21" s="16" t="n">
+      <c r="T21" s="15" t="n">
         <f aca="false">INT(S21/10)</f>
         <v>1031781</v>
       </c>
@@ -2152,15 +2148,15 @@
         <v>160</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q22" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R22" s="15" t="n">
         <f aca="false">INT(T22/U22)</f>
         <v>515890</v>
       </c>
@@ -2168,7 +2164,7 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T22" s="16" t="n">
+      <c r="T22" s="15" t="n">
         <f aca="false">INT(S22/10)</f>
         <v>1031781</v>
       </c>
@@ -2224,15 +2220,15 @@
         <v>160</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R23" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R23" s="15" t="n">
         <f aca="false">INT(T23/U23)</f>
         <v>515890</v>
       </c>
@@ -2240,7 +2236,7 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T23" s="16" t="n">
+      <c r="T23" s="15" t="n">
         <f aca="false">INT(S23/10)</f>
         <v>1031781</v>
       </c>
@@ -2292,15 +2288,15 @@
         <v>192</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R24" s="15" t="n">
         <f aca="false">INT(T24/U24)</f>
         <v>910827</v>
       </c>
@@ -2308,7 +2304,7 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T24" s="16" t="n">
+      <c r="T24" s="15" t="n">
         <f aca="false">INT(S24/10)</f>
         <v>1821655</v>
       </c>
@@ -2362,15 +2358,15 @@
         <v>192</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q25" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R25" s="15" t="n">
         <f aca="false">INT(T25/U25)</f>
         <v>910827</v>
       </c>
@@ -2378,7 +2374,7 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T25" s="16" t="n">
+      <c r="T25" s="15" t="n">
         <f aca="false">INT(S25/10)</f>
         <v>1821655</v>
       </c>
@@ -2434,15 +2430,15 @@
         <v>192</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R26" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R26" s="15" t="n">
         <f aca="false">INT(T26/U26)</f>
         <v>910827</v>
       </c>
@@ -2450,7 +2446,7 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T26" s="16" t="n">
+      <c r="T26" s="15" t="n">
         <f aca="false">INT(S26/10)</f>
         <v>1821655</v>
       </c>
@@ -2502,15 +2498,15 @@
         <v>32</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R27" s="15" t="n">
         <f aca="false">INT(T27/U27)</f>
         <v>23264</v>
       </c>
@@ -2518,7 +2514,7 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T27" s="16" t="n">
+      <c r="T27" s="15" t="n">
         <f aca="false">INT(S27/10)</f>
         <v>46528</v>
       </c>
@@ -2572,15 +2568,15 @@
         <v>32</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q28" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R28" s="15" t="n">
         <f aca="false">INT(T28/U28)</f>
         <v>23264</v>
       </c>
@@ -2588,7 +2584,7 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T28" s="16" t="n">
+      <c r="T28" s="15" t="n">
         <f aca="false">INT(S28/10)</f>
         <v>46528</v>
       </c>
@@ -2644,15 +2640,15 @@
         <v>32</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R29" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R29" s="15" t="n">
         <f aca="false">INT(T29/U29)</f>
         <v>23264</v>
       </c>
@@ -2660,7 +2656,7 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T29" s="16" t="n">
+      <c r="T29" s="15" t="n">
         <f aca="false">INT(S29/10)</f>
         <v>46528</v>
       </c>
@@ -2712,15 +2708,15 @@
         <v>64</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R30" s="15" t="n">
         <f aca="false">INT(T30/U30)</f>
         <v>80815</v>
       </c>
@@ -2728,7 +2724,7 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T30" s="16" t="n">
+      <c r="T30" s="15" t="n">
         <f aca="false">INT(S30/10)</f>
         <v>161630</v>
       </c>
@@ -2782,15 +2778,15 @@
         <v>64</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q31" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R31" s="15" t="n">
         <f aca="false">INT(T31/U31)</f>
         <v>80815</v>
       </c>
@@ -2798,7 +2794,7 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T31" s="16" t="n">
+      <c r="T31" s="15" t="n">
         <f aca="false">INT(S31/10)</f>
         <v>161630</v>
       </c>
@@ -2854,15 +2850,15 @@
         <v>64</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R32" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R32" s="15" t="n">
         <f aca="false">INT(T32/U32)</f>
         <v>80815</v>
       </c>
@@ -2870,7 +2866,7 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T32" s="16" t="n">
+      <c r="T32" s="15" t="n">
         <f aca="false">INT(S32/10)</f>
         <v>161630</v>
       </c>
@@ -2922,15 +2918,15 @@
         <v>96</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R33" s="15" t="n">
         <f aca="false">INT(T33/U33)</f>
         <v>179279</v>
       </c>
@@ -2938,7 +2934,7 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T33" s="16" t="n">
+      <c r="T33" s="15" t="n">
         <f aca="false">INT(S33/10)</f>
         <v>358558</v>
       </c>
@@ -2992,15 +2988,15 @@
         <v>96</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R34" s="15" t="n">
         <f aca="false">INT(T34/U34)</f>
         <v>179279</v>
       </c>
@@ -3008,7 +3004,7 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T34" s="16" t="n">
+      <c r="T34" s="15" t="n">
         <f aca="false">INT(S34/10)</f>
         <v>358558</v>
       </c>
@@ -3064,15 +3060,15 @@
         <v>96</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R35" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R35" s="15" t="n">
         <f aca="false">INT(T35/U35)</f>
         <v>179279</v>
       </c>
@@ -3080,7 +3076,7 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T35" s="16" t="n">
+      <c r="T35" s="15" t="n">
         <f aca="false">INT(S35/10)</f>
         <v>358558</v>
       </c>
@@ -3132,15 +3128,15 @@
         <v>128</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R36" s="15" t="n">
         <f aca="false">INT(T36/U36)</f>
         <v>361725</v>
       </c>
@@ -3148,7 +3144,7 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T36" s="16" t="n">
+      <c r="T36" s="15" t="n">
         <f aca="false">INT(S36/10)</f>
         <v>723450</v>
       </c>
@@ -3202,15 +3198,15 @@
         <v>128</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q37" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R37" s="15" t="n">
         <f aca="false">INT(T37/U37)</f>
         <v>361725</v>
       </c>
@@ -3218,7 +3214,7 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T37" s="16" t="n">
+      <c r="T37" s="15" t="n">
         <f aca="false">INT(S37/10)</f>
         <v>723450</v>
       </c>
@@ -3274,15 +3270,15 @@
         <v>128</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q38" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R38" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R38" s="15" t="n">
         <f aca="false">INT(T38/U38)</f>
         <v>361725</v>
       </c>
@@ -3290,7 +3286,7 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T38" s="16" t="n">
+      <c r="T38" s="15" t="n">
         <f aca="false">INT(S38/10)</f>
         <v>723450</v>
       </c>
@@ -3342,15 +3338,15 @@
         <v>160</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R39" s="15" t="n">
         <f aca="false">INT(T39/U39)</f>
         <v>515890</v>
       </c>
@@ -3358,7 +3354,7 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T39" s="16" t="n">
+      <c r="T39" s="15" t="n">
         <f aca="false">INT(S39/10)</f>
         <v>1031781</v>
       </c>
@@ -3412,15 +3408,15 @@
         <v>160</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q40" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R40" s="15" t="n">
         <f aca="false">INT(T40/U40)</f>
         <v>515890</v>
       </c>
@@ -3428,7 +3424,7 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T40" s="16" t="n">
+      <c r="T40" s="15" t="n">
         <f aca="false">INT(S40/10)</f>
         <v>1031781</v>
       </c>
@@ -3484,15 +3480,15 @@
         <v>160</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q41" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R41" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R41" s="15" t="n">
         <f aca="false">INT(T41/U41)</f>
         <v>515890</v>
       </c>
@@ -3500,7 +3496,7 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T41" s="16" t="n">
+      <c r="T41" s="15" t="n">
         <f aca="false">INT(S41/10)</f>
         <v>1031781</v>
       </c>
@@ -3552,15 +3548,15 @@
         <v>192</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R42" s="15" t="n">
         <f aca="false">INT(T42/U42)</f>
         <v>910827</v>
       </c>
@@ -3568,7 +3564,7 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T42" s="16" t="n">
+      <c r="T42" s="15" t="n">
         <f aca="false">INT(S42/10)</f>
         <v>1821655</v>
       </c>
@@ -3622,15 +3618,15 @@
         <v>192</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q43" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R43" s="15" t="n">
         <f aca="false">INT(T43/U43)</f>
         <v>910827</v>
       </c>
@@ -3638,7 +3634,7 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T43" s="16" t="n">
+      <c r="T43" s="15" t="n">
         <f aca="false">INT(S43/10)</f>
         <v>1821655</v>
       </c>
@@ -3694,15 +3690,15 @@
         <v>192</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q44" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R44" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R44" s="15" t="n">
         <f aca="false">INT(T44/U44)</f>
         <v>910827</v>
       </c>
@@ -3710,7 +3706,7 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T44" s="16" t="n">
+      <c r="T44" s="15" t="n">
         <f aca="false">INT(S44/10)</f>
         <v>1821655</v>
       </c>
@@ -3762,15 +3758,15 @@
         <v>32</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R45" s="15" t="n">
         <f aca="false">INT(T45/U45)</f>
         <v>23264</v>
       </c>
@@ -3778,7 +3774,7 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T45" s="16" t="n">
+      <c r="T45" s="15" t="n">
         <f aca="false">INT(S45/10)</f>
         <v>46528</v>
       </c>
@@ -3832,15 +3828,15 @@
         <v>32</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q46" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R46" s="15" t="n">
         <f aca="false">INT(T46/U46)</f>
         <v>23264</v>
       </c>
@@ -3848,7 +3844,7 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T46" s="16" t="n">
+      <c r="T46" s="15" t="n">
         <f aca="false">INT(S46/10)</f>
         <v>46528</v>
       </c>
@@ -3904,15 +3900,15 @@
         <v>32</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R47" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R47" s="15" t="n">
         <f aca="false">INT(T47/U47)</f>
         <v>23264</v>
       </c>
@@ -3920,7 +3916,7 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T47" s="16" t="n">
+      <c r="T47" s="15" t="n">
         <f aca="false">INT(S47/10)</f>
         <v>46528</v>
       </c>
@@ -3972,15 +3968,15 @@
         <v>64</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R48" s="15" t="n">
         <f aca="false">INT(T48/U48)</f>
         <v>80815</v>
       </c>
@@ -3988,7 +3984,7 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T48" s="16" t="n">
+      <c r="T48" s="15" t="n">
         <f aca="false">INT(S48/10)</f>
         <v>161630</v>
       </c>
@@ -4042,15 +4038,15 @@
         <v>64</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q49" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R49" s="15" t="n">
         <f aca="false">INT(T49/U49)</f>
         <v>80815</v>
       </c>
@@ -4058,7 +4054,7 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T49" s="16" t="n">
+      <c r="T49" s="15" t="n">
         <f aca="false">INT(S49/10)</f>
         <v>161630</v>
       </c>
@@ -4114,15 +4110,15 @@
         <v>64</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R50" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R50" s="15" t="n">
         <f aca="false">INT(T50/U50)</f>
         <v>80815</v>
       </c>
@@ -4130,7 +4126,7 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T50" s="16" t="n">
+      <c r="T50" s="15" t="n">
         <f aca="false">INT(S50/10)</f>
         <v>161630</v>
       </c>
@@ -4182,15 +4178,15 @@
         <v>96</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R51" s="15" t="n">
         <f aca="false">INT(T51/U51)</f>
         <v>179279</v>
       </c>
@@ -4198,7 +4194,7 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T51" s="16" t="n">
+      <c r="T51" s="15" t="n">
         <f aca="false">INT(S51/10)</f>
         <v>358558</v>
       </c>
@@ -4252,15 +4248,15 @@
         <v>96</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q52" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R52" s="15" t="n">
         <f aca="false">INT(T52/U52)</f>
         <v>179279</v>
       </c>
@@ -4268,7 +4264,7 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T52" s="16" t="n">
+      <c r="T52" s="15" t="n">
         <f aca="false">INT(S52/10)</f>
         <v>358558</v>
       </c>
@@ -4324,15 +4320,15 @@
         <v>96</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q53" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R53" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R53" s="15" t="n">
         <f aca="false">INT(T53/U53)</f>
         <v>179279</v>
       </c>
@@ -4340,7 +4336,7 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T53" s="16" t="n">
+      <c r="T53" s="15" t="n">
         <f aca="false">INT(S53/10)</f>
         <v>358558</v>
       </c>
@@ -4392,15 +4388,15 @@
         <v>128</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R54" s="15" t="n">
         <f aca="false">INT(T54/U54)</f>
         <v>361725</v>
       </c>
@@ -4408,7 +4404,7 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T54" s="16" t="n">
+      <c r="T54" s="15" t="n">
         <f aca="false">INT(S54/10)</f>
         <v>723450</v>
       </c>
@@ -4462,15 +4458,15 @@
         <v>128</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q55" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R55" s="15" t="n">
         <f aca="false">INT(T55/U55)</f>
         <v>361725</v>
       </c>
@@ -4478,7 +4474,7 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T55" s="16" t="n">
+      <c r="T55" s="15" t="n">
         <f aca="false">INT(S55/10)</f>
         <v>723450</v>
       </c>
@@ -4534,15 +4530,15 @@
         <v>128</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q56" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R56" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R56" s="15" t="n">
         <f aca="false">INT(T56/U56)</f>
         <v>361725</v>
       </c>
@@ -4550,7 +4546,7 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T56" s="16" t="n">
+      <c r="T56" s="15" t="n">
         <f aca="false">INT(S56/10)</f>
         <v>723450</v>
       </c>
@@ -4602,15 +4598,15 @@
         <v>160</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R57" s="15" t="n">
         <f aca="false">INT(T57/U57)</f>
         <v>515890</v>
       </c>
@@ -4618,7 +4614,7 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T57" s="16" t="n">
+      <c r="T57" s="15" t="n">
         <f aca="false">INT(S57/10)</f>
         <v>1031781</v>
       </c>
@@ -4672,15 +4668,15 @@
         <v>160</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q58" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R58" s="15" t="n">
         <f aca="false">INT(T58/U58)</f>
         <v>515890</v>
       </c>
@@ -4688,7 +4684,7 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T58" s="16" t="n">
+      <c r="T58" s="15" t="n">
         <f aca="false">INT(S58/10)</f>
         <v>1031781</v>
       </c>
@@ -4744,15 +4740,15 @@
         <v>160</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q59" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R59" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R59" s="15" t="n">
         <f aca="false">INT(T59/U59)</f>
         <v>515890</v>
       </c>
@@ -4760,7 +4756,7 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T59" s="16" t="n">
+      <c r="T59" s="15" t="n">
         <f aca="false">INT(S59/10)</f>
         <v>1031781</v>
       </c>
@@ -4812,15 +4808,15 @@
         <v>192</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R60" s="15" t="n">
         <f aca="false">INT(T60/U60)</f>
         <v>910827</v>
       </c>
@@ -4828,7 +4824,7 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T60" s="16" t="n">
+      <c r="T60" s="15" t="n">
         <f aca="false">INT(S60/10)</f>
         <v>1821655</v>
       </c>
@@ -4882,15 +4878,15 @@
         <v>192</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q61" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R61" s="15" t="n">
         <f aca="false">INT(T61/U61)</f>
         <v>910827</v>
       </c>
@@ -4898,7 +4894,7 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T61" s="16" t="n">
+      <c r="T61" s="15" t="n">
         <f aca="false">INT(S61/10)</f>
         <v>1821655</v>
       </c>
@@ -4954,15 +4950,15 @@
         <v>192</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q62" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R62" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R62" s="15" t="n">
         <f aca="false">INT(T62/U62)</f>
         <v>910827</v>
       </c>
@@ -4970,7 +4966,7 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T62" s="16" t="n">
+      <c r="T62" s="15" t="n">
         <f aca="false">INT(S62/10)</f>
         <v>1821655</v>
       </c>
@@ -5022,15 +5018,15 @@
         <v>32</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q63" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R63" s="15" t="n">
         <f aca="false">INT(T63/U63)</f>
         <v>23264</v>
       </c>
@@ -5038,7 +5034,7 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T63" s="16" t="n">
+      <c r="T63" s="15" t="n">
         <f aca="false">INT(S63/10)</f>
         <v>46528</v>
       </c>
@@ -5092,15 +5088,15 @@
         <v>32</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q64" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q64" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R64" s="15" t="n">
         <f aca="false">INT(T64/U64)</f>
         <v>23264</v>
       </c>
@@ -5108,7 +5104,7 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T64" s="16" t="n">
+      <c r="T64" s="15" t="n">
         <f aca="false">INT(S64/10)</f>
         <v>46528</v>
       </c>
@@ -5164,15 +5160,15 @@
         <v>32</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q65" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R65" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R65" s="15" t="n">
         <f aca="false">INT(T65/U65)</f>
         <v>23264</v>
       </c>
@@ -5180,7 +5176,7 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T65" s="16" t="n">
+      <c r="T65" s="15" t="n">
         <f aca="false">INT(S65/10)</f>
         <v>46528</v>
       </c>
@@ -5232,15 +5228,15 @@
         <v>64</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R66" s="15" t="n">
         <f aca="false">INT(T66/U66)</f>
         <v>80815</v>
       </c>
@@ -5248,7 +5244,7 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T66" s="16" t="n">
+      <c r="T66" s="15" t="n">
         <f aca="false">INT(S66/10)</f>
         <v>161630</v>
       </c>
@@ -5302,15 +5298,15 @@
         <v>64</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q67" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R67" s="15" t="n">
         <f aca="false">INT(T67/U67)</f>
         <v>80815</v>
       </c>
@@ -5318,7 +5314,7 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T67" s="16" t="n">
+      <c r="T67" s="15" t="n">
         <f aca="false">INT(S67/10)</f>
         <v>161630</v>
       </c>
@@ -5374,15 +5370,15 @@
         <v>64</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q68" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R68" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R68" s="15" t="n">
         <f aca="false">INT(T68/U68)</f>
         <v>80815</v>
       </c>
@@ -5390,7 +5386,7 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T68" s="16" t="n">
+      <c r="T68" s="15" t="n">
         <f aca="false">INT(S68/10)</f>
         <v>161630</v>
       </c>
@@ -5442,15 +5438,15 @@
         <v>96</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R69" s="15" t="n">
         <f aca="false">INT(T69/U69)</f>
         <v>179279</v>
       </c>
@@ -5458,7 +5454,7 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T69" s="16" t="n">
+      <c r="T69" s="15" t="n">
         <f aca="false">INT(S69/10)</f>
         <v>358558</v>
       </c>
@@ -5512,15 +5508,15 @@
         <v>96</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q70" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R70" s="15" t="n">
         <f aca="false">INT(T70/U70)</f>
         <v>179279</v>
       </c>
@@ -5528,7 +5524,7 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T70" s="16" t="n">
+      <c r="T70" s="15" t="n">
         <f aca="false">INT(S70/10)</f>
         <v>358558</v>
       </c>
@@ -5584,15 +5580,15 @@
         <v>96</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q71" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R71" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R71" s="15" t="n">
         <f aca="false">INT(T71/U71)</f>
         <v>179279</v>
       </c>
@@ -5600,7 +5596,7 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T71" s="16" t="n">
+      <c r="T71" s="15" t="n">
         <f aca="false">INT(S71/10)</f>
         <v>358558</v>
       </c>
@@ -5652,15 +5648,15 @@
         <v>128</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R72" s="15" t="n">
         <f aca="false">INT(T72/U72)</f>
         <v>361725</v>
       </c>
@@ -5668,7 +5664,7 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T72" s="16" t="n">
+      <c r="T72" s="15" t="n">
         <f aca="false">INT(S72/10)</f>
         <v>723450</v>
       </c>
@@ -5722,15 +5718,15 @@
         <v>128</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q73" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R73" s="15" t="n">
         <f aca="false">INT(T73/U73)</f>
         <v>361725</v>
       </c>
@@ -5738,7 +5734,7 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T73" s="16" t="n">
+      <c r="T73" s="15" t="n">
         <f aca="false">INT(S73/10)</f>
         <v>723450</v>
       </c>
@@ -5794,15 +5790,15 @@
         <v>128</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q74" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R74" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R74" s="15" t="n">
         <f aca="false">INT(T74/U74)</f>
         <v>361725</v>
       </c>
@@ -5810,7 +5806,7 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T74" s="16" t="n">
+      <c r="T74" s="15" t="n">
         <f aca="false">INT(S74/10)</f>
         <v>723450</v>
       </c>
@@ -5862,15 +5858,15 @@
         <v>160</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q75" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R75" s="15" t="n">
         <f aca="false">INT(T75/U75)</f>
         <v>515890</v>
       </c>
@@ -5878,7 +5874,7 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T75" s="16" t="n">
+      <c r="T75" s="15" t="n">
         <f aca="false">INT(S75/10)</f>
         <v>1031781</v>
       </c>
@@ -5932,15 +5928,15 @@
         <v>160</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q76" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R76" s="15" t="n">
         <f aca="false">INT(T76/U76)</f>
         <v>515890</v>
       </c>
@@ -5948,7 +5944,7 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T76" s="16" t="n">
+      <c r="T76" s="15" t="n">
         <f aca="false">INT(S76/10)</f>
         <v>1031781</v>
       </c>
@@ -6004,15 +6000,15 @@
         <v>160</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q77" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R77" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R77" s="15" t="n">
         <f aca="false">INT(T77/U77)</f>
         <v>515890</v>
       </c>
@@ -6020,7 +6016,7 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T77" s="16" t="n">
+      <c r="T77" s="15" t="n">
         <f aca="false">INT(S77/10)</f>
         <v>1031781</v>
       </c>
@@ -6072,15 +6068,15 @@
         <v>192</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R78" s="15" t="n">
         <f aca="false">INT(T78/U78)</f>
         <v>910827</v>
       </c>
@@ -6088,7 +6084,7 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T78" s="16" t="n">
+      <c r="T78" s="15" t="n">
         <f aca="false">INT(S78/10)</f>
         <v>1821655</v>
       </c>
@@ -6142,15 +6138,15 @@
         <v>192</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="Q79" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R79" s="15" t="n">
         <f aca="false">INT(T79/U79)</f>
         <v>910827</v>
       </c>
@@ -6158,7 +6154,7 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T79" s="16" t="n">
+      <c r="T79" s="15" t="n">
         <f aca="false">INT(S79/10)</f>
         <v>1821655</v>
       </c>
@@ -6214,15 +6210,15 @@
         <v>192</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>262144</v>
+        <v>1048576</v>
       </c>
       <c r="Q80" s="1" t="n">
-        <v>262144</v>
-      </c>
-      <c r="R80" s="16" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R80" s="15" t="n">
         <f aca="false">INT(T80/U80)</f>
         <v>910827</v>
       </c>
@@ -6230,7 +6226,7 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T80" s="16" t="n">
+      <c r="T80" s="15" t="n">
         <f aca="false">INT(S80/10)</f>
         <v>1821655</v>
       </c>

--- a/experiment/xlsx/experiments_SD-VBS_disparity_circle_pi4.xlsx
+++ b/experiment/xlsx/experiments_SD-VBS_disparity_circle_pi4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="131">
   <si>
     <t xml:space="preserve">xrtos or circle</t>
   </si>
@@ -100,6 +100,9 @@
     <t xml:space="preserve">cycles per count</t>
   </si>
   <si>
+    <t xml:space="preserve">synbench repeat</t>
+  </si>
+  <si>
     <t xml:space="preserve">circle</t>
   </si>
   <si>
@@ -389,6 +392,27 @@
   </si>
   <si>
     <t xml:space="preserve">BENCH_DISPARITY_CORES4_64MB_WRITEATTACK2_INPUTSIZE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xrtos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES1_INPUTSIZE224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES1_INPUTSIZE256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_READATTACK1_INPUTSIZE224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_READATTACK1_INPUTSIZE256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_WRITEATTACK1_INPUTSIZE224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_DISPARITY_CORES4_WRITEATTACK1_INPUTSIZE256</t>
   </si>
 </sst>
 </file>
@@ -515,7 +539,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -548,6 +572,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -566,6 +594,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -659,11 +691,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.81"/>
@@ -788,449 +820,454 @@
       <c r="U2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="0"/>
+      <c r="V2" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="A3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="F3" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="n">
+      <c r="J3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="O3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="11" t="n">
+      <c r="O3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12" t="n">
         <f aca="false">INT(T3/U3)</f>
         <v>23264</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="13" t="n">
         <v>465289</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="12" t="n">
         <f aca="false">INT(S3/10)</f>
         <v>46528</v>
       </c>
-      <c r="U3" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" s="0"/>
+      <c r="U3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" s="14"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <f aca="false">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="n">
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="O4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="11" t="n">
+      <c r="O4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12" t="n">
         <f aca="false">INT(T4/U4)</f>
         <v>80815</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="13" t="n">
         <v>1616309</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="12" t="n">
         <f aca="false">INT(S4/10)</f>
         <v>161630</v>
       </c>
-      <c r="U4" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" s="0"/>
+      <c r="U4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" s="14"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <f aca="false">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="n">
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="n">
         <v>96</v>
       </c>
-      <c r="O5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="11" t="n">
+      <c r="O5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12" t="n">
         <f aca="false">INT(T5/U5)</f>
         <v>179279</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="13" t="n">
         <v>3585585</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="12" t="n">
         <f aca="false">INT(S5/10)</f>
         <v>358558</v>
       </c>
-      <c r="U5" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" s="0"/>
+      <c r="U5" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" s="14"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="9" t="n">
         <f aca="false">A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8" t="n">
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9" t="n">
         <v>128</v>
       </c>
-      <c r="O6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="11" t="n">
+      <c r="O6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12" t="n">
         <f aca="false">INT(T6/U6)</f>
         <v>361725</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="13" t="n">
         <v>7234506</v>
       </c>
-      <c r="T6" s="11" t="n">
+      <c r="T6" s="12" t="n">
         <f aca="false">INT(S6/10)</f>
         <v>723450</v>
       </c>
-      <c r="U6" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="9" t="n">
         <f aca="false">A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="n">
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="n">
         <v>160</v>
       </c>
-      <c r="O7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="11" t="n">
+      <c r="O7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12" t="n">
         <f aca="false">INT(T7/U7)</f>
         <v>515890</v>
       </c>
-      <c r="S7" s="12" t="n">
+      <c r="S7" s="13" t="n">
         <v>10317812</v>
       </c>
-      <c r="T7" s="11" t="n">
+      <c r="T7" s="12" t="n">
         <f aca="false">INT(S7/10)</f>
         <v>1031781</v>
       </c>
-      <c r="U7" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U7" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="9" t="n">
         <f aca="false">A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8" t="n">
+      <c r="E8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="n">
         <v>192</v>
       </c>
-      <c r="O8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="11" t="n">
+      <c r="O8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12" t="n">
         <f aca="false">INT(T8/U8)</f>
         <v>910827</v>
       </c>
-      <c r="S8" s="12" t="n">
+      <c r="S8" s="13" t="n">
         <v>18216552</v>
       </c>
-      <c r="T8" s="11" t="n">
+      <c r="T8" s="12" t="n">
         <f aca="false">INT(S8/10)</f>
         <v>1821655</v>
       </c>
-      <c r="U8" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="15" t="n">
         <f aca="false">A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="14" t="n">
+        <v>38</v>
+      </c>
+      <c r="F9" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1246,7 +1283,7 @@
       <c r="Q9" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R9" s="15" t="n">
+      <c r="R9" s="17" t="n">
         <f aca="false">INT(T9/U9)</f>
         <v>23264</v>
       </c>
@@ -1254,54 +1291,57 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T9" s="15" t="n">
+      <c r="T9" s="17" t="n">
         <f aca="false">INT(S9/10)</f>
         <v>46528</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="15" t="n">
         <f aca="false">A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="14" t="n">
+        <v>41</v>
+      </c>
+      <c r="F10" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="0" t="n">
@@ -1316,7 +1356,7 @@
       <c r="Q10" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R10" s="15" t="n">
+      <c r="R10" s="17" t="n">
         <f aca="false">INT(T10/U10)</f>
         <v>23264</v>
       </c>
@@ -1324,57 +1364,60 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T10" s="15" t="n">
+      <c r="T10" s="17" t="n">
         <f aca="false">INT(S10/10)</f>
         <v>46528</v>
       </c>
       <c r="U10" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="15" t="n">
         <f aca="false">A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="14" t="n">
+        <v>44</v>
+      </c>
+      <c r="F11" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>32</v>
@@ -1388,7 +1431,7 @@
       <c r="Q11" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R11" s="15" t="n">
+      <c r="R11" s="17" t="n">
         <f aca="false">INT(T11/U11)</f>
         <v>23264</v>
       </c>
@@ -1396,51 +1439,54 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T11" s="15" t="n">
+      <c r="T11" s="17" t="n">
         <f aca="false">INT(S11/10)</f>
         <v>46528</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="15" t="n">
         <f aca="false">A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="14" t="n">
+        <v>38</v>
+      </c>
+      <c r="F12" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1456,7 +1502,7 @@
       <c r="Q12" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R12" s="15" t="n">
+      <c r="R12" s="17" t="n">
         <f aca="false">INT(T12/U12)</f>
         <v>80815</v>
       </c>
@@ -1464,54 +1510,57 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T12" s="15" t="n">
+      <c r="T12" s="17" t="n">
         <f aca="false">INT(S12/10)</f>
         <v>161630</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="15" t="n">
         <f aca="false">A12+1</f>
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="14" t="n">
+        <v>41</v>
+      </c>
+      <c r="F13" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="0" t="n">
@@ -1526,7 +1575,7 @@
       <c r="Q13" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R13" s="15" t="n">
+      <c r="R13" s="17" t="n">
         <f aca="false">INT(T13/U13)</f>
         <v>80815</v>
       </c>
@@ -1534,57 +1583,60 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T13" s="15" t="n">
+      <c r="T13" s="17" t="n">
         <f aca="false">INT(S13/10)</f>
         <v>161630</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="15" t="n">
         <f aca="false">A13+1</f>
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="14" t="n">
+        <v>44</v>
+      </c>
+      <c r="F14" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>64</v>
@@ -1598,7 +1650,7 @@
       <c r="Q14" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R14" s="15" t="n">
+      <c r="R14" s="17" t="n">
         <f aca="false">INT(T14/U14)</f>
         <v>80815</v>
       </c>
@@ -1606,51 +1658,54 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T14" s="15" t="n">
+      <c r="T14" s="17" t="n">
         <f aca="false">INT(S14/10)</f>
         <v>161630</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
+      <c r="A15" s="15" t="n">
         <f aca="false">A14+1</f>
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="14" t="n">
+        <v>38</v>
+      </c>
+      <c r="F15" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1666,7 +1721,7 @@
       <c r="Q15" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R15" s="15" t="n">
+      <c r="R15" s="17" t="n">
         <f aca="false">INT(T15/U15)</f>
         <v>179279</v>
       </c>
@@ -1674,54 +1729,57 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T15" s="15" t="n">
+      <c r="T15" s="17" t="n">
         <f aca="false">INT(S15/10)</f>
         <v>358558</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="15" t="n">
         <f aca="false">A15+1</f>
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="14" t="n">
+        <v>41</v>
+      </c>
+      <c r="F16" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="0" t="n">
@@ -1736,7 +1794,7 @@
       <c r="Q16" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R16" s="15" t="n">
+      <c r="R16" s="17" t="n">
         <f aca="false">INT(T16/U16)</f>
         <v>179279</v>
       </c>
@@ -1744,57 +1802,60 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T16" s="15" t="n">
+      <c r="T16" s="17" t="n">
         <f aca="false">INT(S16/10)</f>
         <v>358558</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="15" t="n">
         <f aca="false">A16+1</f>
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="14" t="n">
+        <v>44</v>
+      </c>
+      <c r="F17" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>96</v>
@@ -1808,7 +1869,7 @@
       <c r="Q17" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R17" s="15" t="n">
+      <c r="R17" s="17" t="n">
         <f aca="false">INT(T17/U17)</f>
         <v>179279</v>
       </c>
@@ -1816,51 +1877,54 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T17" s="15" t="n">
+      <c r="T17" s="17" t="n">
         <f aca="false">INT(S17/10)</f>
         <v>358558</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+      <c r="A18" s="15" t="n">
         <f aca="false">A17+1</f>
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="14" t="n">
+        <v>38</v>
+      </c>
+      <c r="F18" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1876,7 +1940,7 @@
       <c r="Q18" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R18" s="15" t="n">
+      <c r="R18" s="17" t="n">
         <f aca="false">INT(T18/U18)</f>
         <v>361725</v>
       </c>
@@ -1884,54 +1948,57 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T18" s="15" t="n">
+      <c r="T18" s="17" t="n">
         <f aca="false">INT(S18/10)</f>
         <v>723450</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V18" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
+      <c r="A19" s="15" t="n">
         <f aca="false">A18+1</f>
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H19" s="14" t="n">
+        <v>41</v>
+      </c>
+      <c r="F19" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="0" t="n">
@@ -1946,7 +2013,7 @@
       <c r="Q19" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R19" s="15" t="n">
+      <c r="R19" s="17" t="n">
         <f aca="false">INT(T19/U19)</f>
         <v>361725</v>
       </c>
@@ -1954,57 +2021,60 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T19" s="15" t="n">
+      <c r="T19" s="17" t="n">
         <f aca="false">INT(S19/10)</f>
         <v>723450</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V19" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
+      <c r="A20" s="15" t="n">
         <f aca="false">A19+1</f>
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="14" t="n">
+        <v>44</v>
+      </c>
+      <c r="F20" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>128</v>
@@ -2018,7 +2088,7 @@
       <c r="Q20" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R20" s="15" t="n">
+      <c r="R20" s="17" t="n">
         <f aca="false">INT(T20/U20)</f>
         <v>361725</v>
       </c>
@@ -2026,51 +2096,54 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T20" s="15" t="n">
+      <c r="T20" s="17" t="n">
         <f aca="false">INT(S20/10)</f>
         <v>723450</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V20" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+      <c r="A21" s="15" t="n">
         <f aca="false">A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="14" t="n">
+        <v>38</v>
+      </c>
+      <c r="F21" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2086,7 +2159,7 @@
       <c r="Q21" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R21" s="15" t="n">
+      <c r="R21" s="17" t="n">
         <f aca="false">INT(T21/U21)</f>
         <v>515890</v>
       </c>
@@ -2094,54 +2167,57 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T21" s="15" t="n">
+      <c r="T21" s="17" t="n">
         <f aca="false">INT(S21/10)</f>
         <v>1031781</v>
       </c>
       <c r="U21" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V21" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
+      <c r="A22" s="15" t="n">
         <f aca="false">A21+1</f>
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H22" s="14" t="n">
+        <v>41</v>
+      </c>
+      <c r="F22" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="0" t="n">
@@ -2156,7 +2232,7 @@
       <c r="Q22" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R22" s="15" t="n">
+      <c r="R22" s="17" t="n">
         <f aca="false">INT(T22/U22)</f>
         <v>515890</v>
       </c>
@@ -2164,57 +2240,60 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T22" s="15" t="n">
+      <c r="T22" s="17" t="n">
         <f aca="false">INT(S22/10)</f>
         <v>1031781</v>
       </c>
       <c r="U22" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V22" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="n">
+      <c r="A23" s="15" t="n">
         <f aca="false">A22+1</f>
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G23" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H23" s="14" t="n">
+        <v>44</v>
+      </c>
+      <c r="F23" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N23" s="0" t="n">
         <v>160</v>
@@ -2228,7 +2307,7 @@
       <c r="Q23" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R23" s="15" t="n">
+      <c r="R23" s="17" t="n">
         <f aca="false">INT(T23/U23)</f>
         <v>515890</v>
       </c>
@@ -2236,51 +2315,54 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T23" s="15" t="n">
+      <c r="T23" s="17" t="n">
         <f aca="false">INT(S23/10)</f>
         <v>1031781</v>
       </c>
       <c r="U23" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V23" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
+      <c r="A24" s="15" t="n">
         <f aca="false">A23+1</f>
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G24" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="14" t="n">
+        <v>38</v>
+      </c>
+      <c r="F24" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2296,7 +2378,7 @@
       <c r="Q24" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R24" s="15" t="n">
+      <c r="R24" s="17" t="n">
         <f aca="false">INT(T24/U24)</f>
         <v>910827</v>
       </c>
@@ -2304,54 +2386,57 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T24" s="15" t="n">
+      <c r="T24" s="17" t="n">
         <f aca="false">INT(S24/10)</f>
         <v>1821655</v>
       </c>
       <c r="U24" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V24" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
+      <c r="A25" s="15" t="n">
         <f aca="false">A24+1</f>
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H25" s="14" t="n">
+        <v>41</v>
+      </c>
+      <c r="F25" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="0" t="n">
@@ -2366,7 +2451,7 @@
       <c r="Q25" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R25" s="15" t="n">
+      <c r="R25" s="17" t="n">
         <f aca="false">INT(T25/U25)</f>
         <v>910827</v>
       </c>
@@ -2374,57 +2459,60 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T25" s="15" t="n">
+      <c r="T25" s="17" t="n">
         <f aca="false">INT(S25/10)</f>
         <v>1821655</v>
       </c>
       <c r="U25" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V25" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
+      <c r="A26" s="15" t="n">
         <f aca="false">A25+1</f>
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="14" t="n">
+        <v>44</v>
+      </c>
+      <c r="F26" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>192</v>
@@ -2438,7 +2526,7 @@
       <c r="Q26" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R26" s="15" t="n">
+      <c r="R26" s="17" t="n">
         <f aca="false">INT(T26/U26)</f>
         <v>910827</v>
       </c>
@@ -2446,51 +2534,54 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T26" s="15" t="n">
+      <c r="T26" s="17" t="n">
         <f aca="false">INT(S26/10)</f>
         <v>1821655</v>
       </c>
       <c r="U26" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V26" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
+      <c r="A27" s="15" t="n">
         <f aca="false">A26+1</f>
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G27" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="14" t="n">
+        <v>61</v>
+      </c>
+      <c r="F27" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2506,7 +2597,7 @@
       <c r="Q27" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R27" s="15" t="n">
+      <c r="R27" s="17" t="n">
         <f aca="false">INT(T27/U27)</f>
         <v>23264</v>
       </c>
@@ -2514,54 +2605,57 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T27" s="15" t="n">
+      <c r="T27" s="17" t="n">
         <f aca="false">INT(S27/10)</f>
         <v>46528</v>
       </c>
       <c r="U27" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
+      <c r="A28" s="15" t="n">
         <f aca="false">A27+1</f>
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G28" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H28" s="14" t="n">
+        <v>63</v>
+      </c>
+      <c r="F28" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="0" t="n">
@@ -2576,7 +2670,7 @@
       <c r="Q28" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R28" s="15" t="n">
+      <c r="R28" s="17" t="n">
         <f aca="false">INT(T28/U28)</f>
         <v>23264</v>
       </c>
@@ -2584,57 +2678,60 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T28" s="15" t="n">
+      <c r="T28" s="17" t="n">
         <f aca="false">INT(S28/10)</f>
         <v>46528</v>
       </c>
       <c r="U28" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
+      <c r="A29" s="15" t="n">
         <f aca="false">A28+1</f>
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H29" s="14" t="n">
+        <v>65</v>
+      </c>
+      <c r="F29" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N29" s="0" t="n">
         <v>32</v>
@@ -2648,7 +2745,7 @@
       <c r="Q29" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R29" s="15" t="n">
+      <c r="R29" s="17" t="n">
         <f aca="false">INT(T29/U29)</f>
         <v>23264</v>
       </c>
@@ -2656,51 +2753,54 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T29" s="15" t="n">
+      <c r="T29" s="17" t="n">
         <f aca="false">INT(S29/10)</f>
         <v>46528</v>
       </c>
       <c r="U29" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+      <c r="A30" s="15" t="n">
         <f aca="false">A29+1</f>
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G30" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H30" s="14" t="n">
+        <v>61</v>
+      </c>
+      <c r="F30" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2716,7 +2816,7 @@
       <c r="Q30" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R30" s="15" t="n">
+      <c r="R30" s="17" t="n">
         <f aca="false">INT(T30/U30)</f>
         <v>80815</v>
       </c>
@@ -2724,54 +2824,57 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T30" s="15" t="n">
+      <c r="T30" s="17" t="n">
         <f aca="false">INT(S30/10)</f>
         <v>161630</v>
       </c>
       <c r="U30" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
+      <c r="A31" s="15" t="n">
         <f aca="false">A30+1</f>
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G31" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H31" s="14" t="n">
+        <v>63</v>
+      </c>
+      <c r="F31" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="0" t="n">
@@ -2786,7 +2889,7 @@
       <c r="Q31" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R31" s="15" t="n">
+      <c r="R31" s="17" t="n">
         <f aca="false">INT(T31/U31)</f>
         <v>80815</v>
       </c>
@@ -2794,57 +2897,60 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T31" s="15" t="n">
+      <c r="T31" s="17" t="n">
         <f aca="false">INT(S31/10)</f>
         <v>161630</v>
       </c>
       <c r="U31" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
+      <c r="A32" s="15" t="n">
         <f aca="false">A31+1</f>
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G32" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H32" s="14" t="n">
+        <v>65</v>
+      </c>
+      <c r="F32" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>64</v>
@@ -2858,7 +2964,7 @@
       <c r="Q32" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R32" s="15" t="n">
+      <c r="R32" s="17" t="n">
         <f aca="false">INT(T32/U32)</f>
         <v>80815</v>
       </c>
@@ -2866,51 +2972,54 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T32" s="15" t="n">
+      <c r="T32" s="17" t="n">
         <f aca="false">INT(S32/10)</f>
         <v>161630</v>
       </c>
       <c r="U32" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="n">
+      <c r="A33" s="15" t="n">
         <f aca="false">A32+1</f>
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G33" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H33" s="14" t="n">
+        <v>61</v>
+      </c>
+      <c r="F33" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2926,7 +3035,7 @@
       <c r="Q33" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R33" s="15" t="n">
+      <c r="R33" s="17" t="n">
         <f aca="false">INT(T33/U33)</f>
         <v>179279</v>
       </c>
@@ -2934,54 +3043,57 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T33" s="15" t="n">
+      <c r="T33" s="17" t="n">
         <f aca="false">INT(S33/10)</f>
         <v>358558</v>
       </c>
       <c r="U33" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="n">
+      <c r="A34" s="15" t="n">
         <f aca="false">A33+1</f>
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H34" s="14" t="n">
+        <v>63</v>
+      </c>
+      <c r="F34" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="0" t="n">
@@ -2996,7 +3108,7 @@
       <c r="Q34" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R34" s="15" t="n">
+      <c r="R34" s="17" t="n">
         <f aca="false">INT(T34/U34)</f>
         <v>179279</v>
       </c>
@@ -3004,57 +3116,60 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T34" s="15" t="n">
+      <c r="T34" s="17" t="n">
         <f aca="false">INT(S34/10)</f>
         <v>358558</v>
       </c>
       <c r="U34" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
+      <c r="A35" s="15" t="n">
         <f aca="false">A34+1</f>
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G35" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="14" t="n">
+        <v>65</v>
+      </c>
+      <c r="F35" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N35" s="0" t="n">
         <v>96</v>
@@ -3068,7 +3183,7 @@
       <c r="Q35" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R35" s="15" t="n">
+      <c r="R35" s="17" t="n">
         <f aca="false">INT(T35/U35)</f>
         <v>179279</v>
       </c>
@@ -3076,51 +3191,54 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T35" s="15" t="n">
+      <c r="T35" s="17" t="n">
         <f aca="false">INT(S35/10)</f>
         <v>358558</v>
       </c>
       <c r="U35" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
+      <c r="A36" s="15" t="n">
         <f aca="false">A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G36" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="14" t="n">
+        <v>61</v>
+      </c>
+      <c r="F36" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -3136,7 +3254,7 @@
       <c r="Q36" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R36" s="15" t="n">
+      <c r="R36" s="17" t="n">
         <f aca="false">INT(T36/U36)</f>
         <v>361725</v>
       </c>
@@ -3144,54 +3262,57 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T36" s="15" t="n">
+      <c r="T36" s="17" t="n">
         <f aca="false">INT(S36/10)</f>
         <v>723450</v>
       </c>
       <c r="U36" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V36" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
+      <c r="A37" s="15" t="n">
         <f aca="false">A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G37" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="14" t="n">
+        <v>63</v>
+      </c>
+      <c r="F37" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="0" t="n">
@@ -3206,7 +3327,7 @@
       <c r="Q37" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R37" s="15" t="n">
+      <c r="R37" s="17" t="n">
         <f aca="false">INT(T37/U37)</f>
         <v>361725</v>
       </c>
@@ -3214,57 +3335,60 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T37" s="15" t="n">
+      <c r="T37" s="17" t="n">
         <f aca="false">INT(S37/10)</f>
         <v>723450</v>
       </c>
       <c r="U37" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V37" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
+      <c r="A38" s="15" t="n">
         <f aca="false">A37+1</f>
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G38" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H38" s="14" t="n">
+        <v>65</v>
+      </c>
+      <c r="F38" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>128</v>
@@ -3278,7 +3402,7 @@
       <c r="Q38" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R38" s="15" t="n">
+      <c r="R38" s="17" t="n">
         <f aca="false">INT(T38/U38)</f>
         <v>361725</v>
       </c>
@@ -3286,51 +3410,54 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T38" s="15" t="n">
+      <c r="T38" s="17" t="n">
         <f aca="false">INT(S38/10)</f>
         <v>723450</v>
       </c>
       <c r="U38" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V38" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
+      <c r="A39" s="15" t="n">
         <f aca="false">A38+1</f>
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G39" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H39" s="14" t="n">
+        <v>61</v>
+      </c>
+      <c r="F39" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -3346,7 +3473,7 @@
       <c r="Q39" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R39" s="15" t="n">
+      <c r="R39" s="17" t="n">
         <f aca="false">INT(T39/U39)</f>
         <v>515890</v>
       </c>
@@ -3354,54 +3481,57 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T39" s="15" t="n">
+      <c r="T39" s="17" t="n">
         <f aca="false">INT(S39/10)</f>
         <v>1031781</v>
       </c>
       <c r="U39" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V39" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+      <c r="A40" s="15" t="n">
         <f aca="false">A39+1</f>
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G40" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H40" s="14" t="n">
+        <v>63</v>
+      </c>
+      <c r="F40" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="0" t="n">
@@ -3416,7 +3546,7 @@
       <c r="Q40" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R40" s="15" t="n">
+      <c r="R40" s="17" t="n">
         <f aca="false">INT(T40/U40)</f>
         <v>515890</v>
       </c>
@@ -3424,57 +3554,60 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T40" s="15" t="n">
+      <c r="T40" s="17" t="n">
         <f aca="false">INT(S40/10)</f>
         <v>1031781</v>
       </c>
       <c r="U40" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V40" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
+      <c r="A41" s="15" t="n">
         <f aca="false">A40+1</f>
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H41" s="14" t="n">
+        <v>65</v>
+      </c>
+      <c r="F41" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>160</v>
@@ -3488,7 +3621,7 @@
       <c r="Q41" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R41" s="15" t="n">
+      <c r="R41" s="17" t="n">
         <f aca="false">INT(T41/U41)</f>
         <v>515890</v>
       </c>
@@ -3496,51 +3629,54 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T41" s="15" t="n">
+      <c r="T41" s="17" t="n">
         <f aca="false">INT(S41/10)</f>
         <v>1031781</v>
       </c>
       <c r="U41" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V41" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="n">
+      <c r="A42" s="15" t="n">
         <f aca="false">A41+1</f>
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G42" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H42" s="14" t="n">
+        <v>61</v>
+      </c>
+      <c r="F42" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -3556,7 +3692,7 @@
       <c r="Q42" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R42" s="15" t="n">
+      <c r="R42" s="17" t="n">
         <f aca="false">INT(T42/U42)</f>
         <v>910827</v>
       </c>
@@ -3564,54 +3700,57 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T42" s="15" t="n">
+      <c r="T42" s="17" t="n">
         <f aca="false">INT(S42/10)</f>
         <v>1821655</v>
       </c>
       <c r="U42" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V42" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="n">
+      <c r="A43" s="15" t="n">
         <f aca="false">A42+1</f>
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G43" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H43" s="14" t="n">
+        <v>63</v>
+      </c>
+      <c r="F43" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="0" t="n">
@@ -3626,7 +3765,7 @@
       <c r="Q43" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R43" s="15" t="n">
+      <c r="R43" s="17" t="n">
         <f aca="false">INT(T43/U43)</f>
         <v>910827</v>
       </c>
@@ -3634,57 +3773,60 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T43" s="15" t="n">
+      <c r="T43" s="17" t="n">
         <f aca="false">INT(S43/10)</f>
         <v>1821655</v>
       </c>
       <c r="U43" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V43" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="n">
+      <c r="A44" s="15" t="n">
         <f aca="false">A43+1</f>
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G44" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H44" s="14" t="n">
+        <v>65</v>
+      </c>
+      <c r="F44" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>192</v>
@@ -3698,7 +3840,7 @@
       <c r="Q44" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R44" s="15" t="n">
+      <c r="R44" s="17" t="n">
         <f aca="false">INT(T44/U44)</f>
         <v>910827</v>
       </c>
@@ -3706,51 +3848,54 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T44" s="15" t="n">
+      <c r="T44" s="17" t="n">
         <f aca="false">INT(S44/10)</f>
         <v>1821655</v>
       </c>
       <c r="U44" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V44" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
+      <c r="A45" s="15" t="n">
         <f aca="false">A44+1</f>
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G45" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H45" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="F45" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -3766,7 +3911,7 @@
       <c r="Q45" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R45" s="15" t="n">
+      <c r="R45" s="17" t="n">
         <f aca="false">INT(T45/U45)</f>
         <v>23264</v>
       </c>
@@ -3774,54 +3919,57 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T45" s="15" t="n">
+      <c r="T45" s="17" t="n">
         <f aca="false">INT(S45/10)</f>
         <v>46528</v>
       </c>
       <c r="U45" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V45" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
+      <c r="A46" s="15" t="n">
         <f aca="false">A45+1</f>
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G46" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H46" s="14" t="n">
+        <v>84</v>
+      </c>
+      <c r="F46" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="0" t="n">
@@ -3836,7 +3984,7 @@
       <c r="Q46" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R46" s="15" t="n">
+      <c r="R46" s="17" t="n">
         <f aca="false">INT(T46/U46)</f>
         <v>23264</v>
       </c>
@@ -3844,57 +3992,60 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T46" s="15" t="n">
+      <c r="T46" s="17" t="n">
         <f aca="false">INT(S46/10)</f>
         <v>46528</v>
       </c>
       <c r="U46" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V46" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
+      <c r="A47" s="15" t="n">
         <f aca="false">A46+1</f>
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G47" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H47" s="14" t="n">
+        <v>86</v>
+      </c>
+      <c r="F47" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N47" s="0" t="n">
         <v>32</v>
@@ -3908,7 +4059,7 @@
       <c r="Q47" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R47" s="15" t="n">
+      <c r="R47" s="17" t="n">
         <f aca="false">INT(T47/U47)</f>
         <v>23264</v>
       </c>
@@ -3916,51 +4067,54 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T47" s="15" t="n">
+      <c r="T47" s="17" t="n">
         <f aca="false">INT(S47/10)</f>
         <v>46528</v>
       </c>
       <c r="U47" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V47" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
+      <c r="A48" s="15" t="n">
         <f aca="false">A47+1</f>
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G48" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H48" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="F48" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3976,7 +4130,7 @@
       <c r="Q48" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R48" s="15" t="n">
+      <c r="R48" s="17" t="n">
         <f aca="false">INT(T48/U48)</f>
         <v>80815</v>
       </c>
@@ -3984,54 +4138,57 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T48" s="15" t="n">
+      <c r="T48" s="17" t="n">
         <f aca="false">INT(S48/10)</f>
         <v>161630</v>
       </c>
       <c r="U48" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V48" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
+      <c r="A49" s="15" t="n">
         <f aca="false">A48+1</f>
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G49" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H49" s="14" t="n">
+        <v>84</v>
+      </c>
+      <c r="F49" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="0" t="n">
@@ -4046,7 +4203,7 @@
       <c r="Q49" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R49" s="15" t="n">
+      <c r="R49" s="17" t="n">
         <f aca="false">INT(T49/U49)</f>
         <v>80815</v>
       </c>
@@ -4054,57 +4211,60 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T49" s="15" t="n">
+      <c r="T49" s="17" t="n">
         <f aca="false">INT(S49/10)</f>
         <v>161630</v>
       </c>
       <c r="U49" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V49" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
+      <c r="A50" s="15" t="n">
         <f aca="false">A49+1</f>
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F50" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G50" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H50" s="14" t="n">
+        <v>86</v>
+      </c>
+      <c r="F50" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H50" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N50" s="0" t="n">
         <v>64</v>
@@ -4118,7 +4278,7 @@
       <c r="Q50" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R50" s="15" t="n">
+      <c r="R50" s="17" t="n">
         <f aca="false">INT(T50/U50)</f>
         <v>80815</v>
       </c>
@@ -4126,51 +4286,54 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T50" s="15" t="n">
+      <c r="T50" s="17" t="n">
         <f aca="false">INT(S50/10)</f>
         <v>161630</v>
       </c>
       <c r="U50" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V50" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
+      <c r="A51" s="15" t="n">
         <f aca="false">A50+1</f>
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G51" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H51" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="F51" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G51" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -4186,7 +4349,7 @@
       <c r="Q51" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R51" s="15" t="n">
+      <c r="R51" s="17" t="n">
         <f aca="false">INT(T51/U51)</f>
         <v>179279</v>
       </c>
@@ -4194,54 +4357,57 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T51" s="15" t="n">
+      <c r="T51" s="17" t="n">
         <f aca="false">INT(S51/10)</f>
         <v>358558</v>
       </c>
       <c r="U51" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V51" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
+      <c r="A52" s="15" t="n">
         <f aca="false">A51+1</f>
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G52" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H52" s="14" t="n">
+        <v>84</v>
+      </c>
+      <c r="F52" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G52" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H52" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="0" t="n">
@@ -4256,7 +4422,7 @@
       <c r="Q52" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R52" s="15" t="n">
+      <c r="R52" s="17" t="n">
         <f aca="false">INT(T52/U52)</f>
         <v>179279</v>
       </c>
@@ -4264,57 +4430,60 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T52" s="15" t="n">
+      <c r="T52" s="17" t="n">
         <f aca="false">INT(S52/10)</f>
         <v>358558</v>
       </c>
       <c r="U52" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V52" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="n">
+      <c r="A53" s="15" t="n">
         <f aca="false">A52+1</f>
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G53" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="14" t="n">
+        <v>86</v>
+      </c>
+      <c r="F53" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>96</v>
@@ -4328,7 +4497,7 @@
       <c r="Q53" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R53" s="15" t="n">
+      <c r="R53" s="17" t="n">
         <f aca="false">INT(T53/U53)</f>
         <v>179279</v>
       </c>
@@ -4336,51 +4505,54 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T53" s="15" t="n">
+      <c r="T53" s="17" t="n">
         <f aca="false">INT(S53/10)</f>
         <v>358558</v>
       </c>
       <c r="U53" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V53" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="n">
+      <c r="A54" s="15" t="n">
         <f aca="false">A53+1</f>
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F54" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G54" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H54" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="F54" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -4396,7 +4568,7 @@
       <c r="Q54" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R54" s="15" t="n">
+      <c r="R54" s="17" t="n">
         <f aca="false">INT(T54/U54)</f>
         <v>361725</v>
       </c>
@@ -4404,54 +4576,57 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T54" s="15" t="n">
+      <c r="T54" s="17" t="n">
         <f aca="false">INT(S54/10)</f>
         <v>723450</v>
       </c>
       <c r="U54" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V54" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="n">
+      <c r="A55" s="15" t="n">
         <f aca="false">A54+1</f>
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G55" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H55" s="14" t="n">
+        <v>84</v>
+      </c>
+      <c r="F55" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G55" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H55" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="0" t="n">
@@ -4466,7 +4641,7 @@
       <c r="Q55" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R55" s="15" t="n">
+      <c r="R55" s="17" t="n">
         <f aca="false">INT(T55/U55)</f>
         <v>361725</v>
       </c>
@@ -4474,57 +4649,60 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T55" s="15" t="n">
+      <c r="T55" s="17" t="n">
         <f aca="false">INT(S55/10)</f>
         <v>723450</v>
       </c>
       <c r="U55" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V55" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="n">
+      <c r="A56" s="15" t="n">
         <f aca="false">A55+1</f>
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G56" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H56" s="14" t="n">
+        <v>86</v>
+      </c>
+      <c r="F56" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H56" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N56" s="0" t="n">
         <v>128</v>
@@ -4538,7 +4716,7 @@
       <c r="Q56" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R56" s="15" t="n">
+      <c r="R56" s="17" t="n">
         <f aca="false">INT(T56/U56)</f>
         <v>361725</v>
       </c>
@@ -4546,51 +4724,54 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T56" s="15" t="n">
+      <c r="T56" s="17" t="n">
         <f aca="false">INT(S56/10)</f>
         <v>723450</v>
       </c>
       <c r="U56" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V56" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="n">
+      <c r="A57" s="15" t="n">
         <f aca="false">A56+1</f>
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G57" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H57" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="F57" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G57" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H57" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4606,7 +4787,7 @@
       <c r="Q57" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R57" s="15" t="n">
+      <c r="R57" s="17" t="n">
         <f aca="false">INT(T57/U57)</f>
         <v>515890</v>
       </c>
@@ -4614,54 +4795,57 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T57" s="15" t="n">
+      <c r="T57" s="17" t="n">
         <f aca="false">INT(S57/10)</f>
         <v>1031781</v>
       </c>
       <c r="U57" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V57" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="n">
+      <c r="A58" s="15" t="n">
         <f aca="false">A57+1</f>
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G58" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H58" s="14" t="n">
+        <v>84</v>
+      </c>
+      <c r="F58" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H58" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="0" t="n">
@@ -4676,7 +4860,7 @@
       <c r="Q58" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R58" s="15" t="n">
+      <c r="R58" s="17" t="n">
         <f aca="false">INT(T58/U58)</f>
         <v>515890</v>
       </c>
@@ -4684,57 +4868,60 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T58" s="15" t="n">
+      <c r="T58" s="17" t="n">
         <f aca="false">INT(S58/10)</f>
         <v>1031781</v>
       </c>
       <c r="U58" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V58" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="n">
+      <c r="A59" s="15" t="n">
         <f aca="false">A58+1</f>
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G59" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H59" s="14" t="n">
+        <v>86</v>
+      </c>
+      <c r="F59" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G59" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H59" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N59" s="0" t="n">
         <v>160</v>
@@ -4748,7 +4935,7 @@
       <c r="Q59" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R59" s="15" t="n">
+      <c r="R59" s="17" t="n">
         <f aca="false">INT(T59/U59)</f>
         <v>515890</v>
       </c>
@@ -4756,51 +4943,54 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T59" s="15" t="n">
+      <c r="T59" s="17" t="n">
         <f aca="false">INT(S59/10)</f>
         <v>1031781</v>
       </c>
       <c r="U59" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V59" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="n">
+      <c r="A60" s="15" t="n">
         <f aca="false">A59+1</f>
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F60" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G60" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H60" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="F60" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G60" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H60" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -4816,7 +5006,7 @@
       <c r="Q60" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R60" s="15" t="n">
+      <c r="R60" s="17" t="n">
         <f aca="false">INT(T60/U60)</f>
         <v>910827</v>
       </c>
@@ -4824,54 +5014,57 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T60" s="15" t="n">
+      <c r="T60" s="17" t="n">
         <f aca="false">INT(S60/10)</f>
         <v>1821655</v>
       </c>
       <c r="U60" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V60" s="0" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="n">
+      <c r="A61" s="15" t="n">
         <f aca="false">A60+1</f>
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F61" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G61" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H61" s="14" t="n">
+        <v>84</v>
+      </c>
+      <c r="F61" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G61" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H61" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="0" t="n">
@@ -4886,7 +5079,7 @@
       <c r="Q61" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R61" s="15" t="n">
+      <c r="R61" s="17" t="n">
         <f aca="false">INT(T61/U61)</f>
         <v>910827</v>
       </c>
@@ -4894,57 +5087,60 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T61" s="15" t="n">
+      <c r="T61" s="17" t="n">
         <f aca="false">INT(S61/10)</f>
         <v>1821655</v>
       </c>
       <c r="U61" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V61" s="0" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="n">
+      <c r="A62" s="15" t="n">
         <f aca="false">A61+1</f>
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G62" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H62" s="14" t="n">
+        <v>86</v>
+      </c>
+      <c r="F62" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G62" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H62" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N62" s="0" t="n">
         <v>192</v>
@@ -4958,7 +5154,7 @@
       <c r="Q62" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R62" s="15" t="n">
+      <c r="R62" s="17" t="n">
         <f aca="false">INT(T62/U62)</f>
         <v>910827</v>
       </c>
@@ -4966,51 +5162,54 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T62" s="15" t="n">
+      <c r="T62" s="17" t="n">
         <f aca="false">INT(S62/10)</f>
         <v>1821655</v>
       </c>
       <c r="U62" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V62" s="0" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="n">
+      <c r="A63" s="15" t="n">
         <f aca="false">A62+1</f>
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F63" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G63" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H63" s="14" t="n">
+        <v>103</v>
+      </c>
+      <c r="F63" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G63" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H63" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -5026,7 +5225,7 @@
       <c r="Q63" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R63" s="15" t="n">
+      <c r="R63" s="17" t="n">
         <f aca="false">INT(T63/U63)</f>
         <v>23264</v>
       </c>
@@ -5034,54 +5233,57 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T63" s="15" t="n">
+      <c r="T63" s="17" t="n">
         <f aca="false">INT(S63/10)</f>
         <v>46528</v>
       </c>
       <c r="U63" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V63" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="n">
+      <c r="A64" s="15" t="n">
         <f aca="false">A63+1</f>
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F64" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G64" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H64" s="14" t="n">
+        <v>105</v>
+      </c>
+      <c r="F64" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G64" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H64" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="0" t="n">
@@ -5096,7 +5298,7 @@
       <c r="Q64" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R64" s="15" t="n">
+      <c r="R64" s="17" t="n">
         <f aca="false">INT(T64/U64)</f>
         <v>23264</v>
       </c>
@@ -5104,57 +5306,60 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T64" s="15" t="n">
+      <c r="T64" s="17" t="n">
         <f aca="false">INT(S64/10)</f>
         <v>46528</v>
       </c>
       <c r="U64" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V64" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="n">
+      <c r="A65" s="15" t="n">
         <f aca="false">A64+1</f>
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F65" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G65" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H65" s="14" t="n">
+        <v>107</v>
+      </c>
+      <c r="F65" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G65" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H65" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N65" s="0" t="n">
         <v>32</v>
@@ -5168,7 +5373,7 @@
       <c r="Q65" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R65" s="15" t="n">
+      <c r="R65" s="17" t="n">
         <f aca="false">INT(T65/U65)</f>
         <v>23264</v>
       </c>
@@ -5176,51 +5381,54 @@
         <f aca="false">S$3</f>
         <v>465289</v>
       </c>
-      <c r="T65" s="15" t="n">
+      <c r="T65" s="17" t="n">
         <f aca="false">INT(S65/10)</f>
         <v>46528</v>
       </c>
       <c r="U65" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V65" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="n">
+      <c r="A66" s="15" t="n">
         <f aca="false">A65+1</f>
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F66" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G66" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H66" s="14" t="n">
+        <v>103</v>
+      </c>
+      <c r="F66" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G66" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H66" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -5236,7 +5444,7 @@
       <c r="Q66" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R66" s="15" t="n">
+      <c r="R66" s="17" t="n">
         <f aca="false">INT(T66/U66)</f>
         <v>80815</v>
       </c>
@@ -5244,54 +5452,57 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T66" s="15" t="n">
+      <c r="T66" s="17" t="n">
         <f aca="false">INT(S66/10)</f>
         <v>161630</v>
       </c>
       <c r="U66" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V66" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13" t="n">
+      <c r="A67" s="15" t="n">
         <f aca="false">A66+1</f>
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F67" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G67" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H67" s="14" t="n">
+        <v>105</v>
+      </c>
+      <c r="F67" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G67" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H67" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="0" t="n">
@@ -5306,7 +5517,7 @@
       <c r="Q67" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R67" s="15" t="n">
+      <c r="R67" s="17" t="n">
         <f aca="false">INT(T67/U67)</f>
         <v>80815</v>
       </c>
@@ -5314,57 +5525,60 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T67" s="15" t="n">
+      <c r="T67" s="17" t="n">
         <f aca="false">INT(S67/10)</f>
         <v>161630</v>
       </c>
       <c r="U67" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V67" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="n">
+      <c r="A68" s="15" t="n">
         <f aca="false">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F68" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G68" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H68" s="14" t="n">
+        <v>107</v>
+      </c>
+      <c r="F68" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G68" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H68" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N68" s="0" t="n">
         <v>64</v>
@@ -5378,7 +5592,7 @@
       <c r="Q68" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R68" s="15" t="n">
+      <c r="R68" s="17" t="n">
         <f aca="false">INT(T68/U68)</f>
         <v>80815</v>
       </c>
@@ -5386,51 +5600,54 @@
         <f aca="false">S$4</f>
         <v>1616309</v>
       </c>
-      <c r="T68" s="15" t="n">
+      <c r="T68" s="17" t="n">
         <f aca="false">INT(S68/10)</f>
         <v>161630</v>
       </c>
       <c r="U68" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V68" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13" t="n">
+      <c r="A69" s="15" t="n">
         <f aca="false">A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F69" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G69" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H69" s="14" t="n">
+        <v>103</v>
+      </c>
+      <c r="F69" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G69" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H69" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -5446,7 +5663,7 @@
       <c r="Q69" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R69" s="15" t="n">
+      <c r="R69" s="17" t="n">
         <f aca="false">INT(T69/U69)</f>
         <v>179279</v>
       </c>
@@ -5454,54 +5671,57 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T69" s="15" t="n">
+      <c r="T69" s="17" t="n">
         <f aca="false">INT(S69/10)</f>
         <v>358558</v>
       </c>
       <c r="U69" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V69" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="n">
+      <c r="A70" s="15" t="n">
         <f aca="false">A69+1</f>
         <v>68</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F70" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G70" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H70" s="14" t="n">
+        <v>105</v>
+      </c>
+      <c r="F70" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G70" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H70" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="0" t="n">
@@ -5516,7 +5736,7 @@
       <c r="Q70" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R70" s="15" t="n">
+      <c r="R70" s="17" t="n">
         <f aca="false">INT(T70/U70)</f>
         <v>179279</v>
       </c>
@@ -5524,57 +5744,60 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T70" s="15" t="n">
+      <c r="T70" s="17" t="n">
         <f aca="false">INT(S70/10)</f>
         <v>358558</v>
       </c>
       <c r="U70" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V70" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="n">
+      <c r="A71" s="15" t="n">
         <f aca="false">A70+1</f>
         <v>69</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F71" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G71" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H71" s="14" t="n">
+        <v>107</v>
+      </c>
+      <c r="F71" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G71" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H71" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N71" s="0" t="n">
         <v>96</v>
@@ -5588,7 +5811,7 @@
       <c r="Q71" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R71" s="15" t="n">
+      <c r="R71" s="17" t="n">
         <f aca="false">INT(T71/U71)</f>
         <v>179279</v>
       </c>
@@ -5596,51 +5819,54 @@
         <f aca="false">S$5</f>
         <v>3585585</v>
       </c>
-      <c r="T71" s="15" t="n">
+      <c r="T71" s="17" t="n">
         <f aca="false">INT(S71/10)</f>
         <v>358558</v>
       </c>
       <c r="U71" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V71" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="n">
+      <c r="A72" s="15" t="n">
         <f aca="false">A71+1</f>
         <v>70</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F72" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G72" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H72" s="14" t="n">
+        <v>103</v>
+      </c>
+      <c r="F72" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G72" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H72" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -5656,7 +5882,7 @@
       <c r="Q72" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R72" s="15" t="n">
+      <c r="R72" s="17" t="n">
         <f aca="false">INT(T72/U72)</f>
         <v>361725</v>
       </c>
@@ -5664,54 +5890,57 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T72" s="15" t="n">
+      <c r="T72" s="17" t="n">
         <f aca="false">INT(S72/10)</f>
         <v>723450</v>
       </c>
       <c r="U72" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V72" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="n">
+      <c r="A73" s="15" t="n">
         <f aca="false">A72+1</f>
         <v>71</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F73" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G73" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H73" s="14" t="n">
+        <v>105</v>
+      </c>
+      <c r="F73" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G73" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H73" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="0" t="n">
@@ -5726,7 +5955,7 @@
       <c r="Q73" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R73" s="15" t="n">
+      <c r="R73" s="17" t="n">
         <f aca="false">INT(T73/U73)</f>
         <v>361725</v>
       </c>
@@ -5734,57 +5963,60 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T73" s="15" t="n">
+      <c r="T73" s="17" t="n">
         <f aca="false">INT(S73/10)</f>
         <v>723450</v>
       </c>
       <c r="U73" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V73" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="n">
+      <c r="A74" s="15" t="n">
         <f aca="false">A73+1</f>
         <v>72</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F74" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G74" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H74" s="14" t="n">
+        <v>107</v>
+      </c>
+      <c r="F74" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G74" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H74" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N74" s="0" t="n">
         <v>128</v>
@@ -5798,7 +6030,7 @@
       <c r="Q74" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R74" s="15" t="n">
+      <c r="R74" s="17" t="n">
         <f aca="false">INT(T74/U74)</f>
         <v>361725</v>
       </c>
@@ -5806,51 +6038,54 @@
         <f aca="false">S$6</f>
         <v>7234506</v>
       </c>
-      <c r="T74" s="15" t="n">
+      <c r="T74" s="17" t="n">
         <f aca="false">INT(S74/10)</f>
         <v>723450</v>
       </c>
       <c r="U74" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V74" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13" t="n">
+      <c r="A75" s="15" t="n">
         <f aca="false">A74+1</f>
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F75" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G75" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H75" s="14" t="n">
+        <v>103</v>
+      </c>
+      <c r="F75" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G75" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H75" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -5866,7 +6101,7 @@
       <c r="Q75" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R75" s="15" t="n">
+      <c r="R75" s="17" t="n">
         <f aca="false">INT(T75/U75)</f>
         <v>515890</v>
       </c>
@@ -5874,54 +6109,57 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T75" s="15" t="n">
+      <c r="T75" s="17" t="n">
         <f aca="false">INT(S75/10)</f>
         <v>1031781</v>
       </c>
       <c r="U75" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V75" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="n">
+      <c r="A76" s="15" t="n">
         <f aca="false">A75+1</f>
         <v>74</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F76" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G76" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H76" s="14" t="n">
+        <v>105</v>
+      </c>
+      <c r="F76" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G76" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H76" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="0" t="n">
@@ -5936,7 +6174,7 @@
       <c r="Q76" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R76" s="15" t="n">
+      <c r="R76" s="17" t="n">
         <f aca="false">INT(T76/U76)</f>
         <v>515890</v>
       </c>
@@ -5944,57 +6182,60 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T76" s="15" t="n">
+      <c r="T76" s="17" t="n">
         <f aca="false">INT(S76/10)</f>
         <v>1031781</v>
       </c>
       <c r="U76" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V76" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13" t="n">
+      <c r="A77" s="15" t="n">
         <f aca="false">A76+1</f>
         <v>75</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F77" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G77" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H77" s="14" t="n">
+        <v>107</v>
+      </c>
+      <c r="F77" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G77" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H77" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N77" s="0" t="n">
         <v>160</v>
@@ -6008,7 +6249,7 @@
       <c r="Q77" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R77" s="15" t="n">
+      <c r="R77" s="17" t="n">
         <f aca="false">INT(T77/U77)</f>
         <v>515890</v>
       </c>
@@ -6016,51 +6257,54 @@
         <f aca="false">S$7</f>
         <v>10317812</v>
       </c>
-      <c r="T77" s="15" t="n">
+      <c r="T77" s="17" t="n">
         <f aca="false">INT(S77/10)</f>
         <v>1031781</v>
       </c>
       <c r="U77" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V77" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13" t="n">
+      <c r="A78" s="15" t="n">
         <f aca="false">A77+1</f>
         <v>76</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F78" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G78" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H78" s="14" t="n">
+        <v>103</v>
+      </c>
+      <c r="F78" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G78" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H78" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -6076,7 +6320,7 @@
       <c r="Q78" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R78" s="15" t="n">
+      <c r="R78" s="17" t="n">
         <f aca="false">INT(T78/U78)</f>
         <v>910827</v>
       </c>
@@ -6084,54 +6328,57 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T78" s="15" t="n">
+      <c r="T78" s="17" t="n">
         <f aca="false">INT(S78/10)</f>
         <v>1821655</v>
       </c>
       <c r="U78" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V78" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="n">
+      <c r="A79" s="15" t="n">
         <f aca="false">A78+1</f>
         <v>77</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F79" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G79" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H79" s="14" t="n">
+        <v>105</v>
+      </c>
+      <c r="F79" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G79" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H79" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="0" t="n">
@@ -6146,7 +6393,7 @@
       <c r="Q79" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R79" s="15" t="n">
+      <c r="R79" s="17" t="n">
         <f aca="false">INT(T79/U79)</f>
         <v>910827</v>
       </c>
@@ -6154,57 +6401,60 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T79" s="15" t="n">
+      <c r="T79" s="17" t="n">
         <f aca="false">INT(S79/10)</f>
         <v>1821655</v>
       </c>
       <c r="U79" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V79" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13" t="n">
+      <c r="A80" s="15" t="n">
         <f aca="false">A79+1</f>
         <v>78</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F80" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G80" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H80" s="14" t="n">
+        <v>107</v>
+      </c>
+      <c r="F80" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G80" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H80" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N80" s="0" t="n">
         <v>192</v>
@@ -6218,7 +6468,7 @@
       <c r="Q80" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R80" s="15" t="n">
+      <c r="R80" s="17" t="n">
         <f aca="false">INT(T80/U80)</f>
         <v>910827</v>
       </c>
@@ -6226,12 +6476,447 @@
         <f aca="false">S$8</f>
         <v>18216552</v>
       </c>
-      <c r="T80" s="15" t="n">
+      <c r="T80" s="17" t="n">
         <f aca="false">INT(S80/10)</f>
         <v>1821655</v>
       </c>
       <c r="U80" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="V80" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="n">
+        <f aca="false">A80+1</f>
+        <v>79</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G81" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H81" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9" t="n">
+        <v>224</v>
+      </c>
+      <c r="O81" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" s="12" t="n">
+        <f aca="false">INT(T81/U81)</f>
+        <v>1861597</v>
+      </c>
+      <c r="S81" s="13" t="n">
+        <v>37231957</v>
+      </c>
+      <c r="T81" s="12" t="n">
+        <f aca="false">INT(S81/10)</f>
+        <v>3723195</v>
+      </c>
+      <c r="U81" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" s="14"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="n">
+        <f aca="false">A81+1</f>
+        <v>80</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G82" s="10" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H82" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9" t="n">
+        <v>256</v>
+      </c>
+      <c r="O82" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" s="12" t="n">
+        <f aca="false">INT(T82/U82)</f>
+        <v>2332371</v>
+      </c>
+      <c r="S82" s="13" t="n">
+        <v>46647439</v>
+      </c>
+      <c r="T82" s="12" t="n">
+        <f aca="false">INT(S82/10)</f>
+        <v>4664743</v>
+      </c>
+      <c r="U82" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" s="14"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="15" t="n">
+        <f aca="false">A82+1</f>
+        <v>81</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G83" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H83" s="16" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="O83" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P83" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q83" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R83" s="17" t="n">
+        <f aca="false">INT(T83/U83)</f>
+        <v>1861597</v>
+      </c>
+      <c r="S83" s="0" t="n">
+        <f aca="false">S$81</f>
+        <v>37231957</v>
+      </c>
+      <c r="T83" s="17" t="n">
+        <f aca="false">INT(S83/10)</f>
+        <v>3723195</v>
+      </c>
+      <c r="U83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="15" t="n">
+        <f aca="false">A83+1</f>
+        <v>82</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G84" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H84" s="16" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="O84" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R84" s="17" t="n">
+        <f aca="false">INT(T84/U84)</f>
+        <v>2332371</v>
+      </c>
+      <c r="S84" s="0" t="n">
+        <f aca="false">S$82</f>
+        <v>46647439</v>
+      </c>
+      <c r="T84" s="17" t="n">
+        <f aca="false">INT(S84/10)</f>
+        <v>4664743</v>
+      </c>
+      <c r="U84" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="15" t="n">
+        <f aca="false">A84+1</f>
+        <v>83</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G85" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H85" s="16" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="O85" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P85" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q85" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R85" s="17" t="n">
+        <f aca="false">INT(T85/U85)</f>
+        <v>1861597</v>
+      </c>
+      <c r="S85" s="0" t="n">
+        <f aca="false">S$81</f>
+        <v>37231957</v>
+      </c>
+      <c r="T85" s="17" t="n">
+        <f aca="false">INT(S85/10)</f>
+        <v>3723195</v>
+      </c>
+      <c r="U85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="15" t="n">
+        <f aca="false">A85+1</f>
+        <v>84</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F86" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G86" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H86" s="16" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N86" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="O86" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P86" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q86" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="R86" s="17" t="n">
+        <f aca="false">INT(T86/U86)</f>
+        <v>2332371</v>
+      </c>
+      <c r="S86" s="0" t="n">
+        <f aca="false">S$82</f>
+        <v>46647439</v>
+      </c>
+      <c r="T86" s="17" t="n">
+        <f aca="false">INT(S86/10)</f>
+        <v>4664743</v>
+      </c>
+      <c r="U86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" s="0" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
